--- a/src/main/resources/database/initData.xlsx
+++ b/src/main/resources/database/initData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Pokedex_ver01\Pokedex_ver01\src\main\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6D5300-760B-491D-9E32-CA7986B92F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5E5232-6839-4507-9AF3-616DD614198D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="738" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="738" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ポケモン図鑑マスタ" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="572">
   <si>
     <t>POKEMON_ID</t>
   </si>
@@ -1764,6 +1764,33 @@
   </si>
   <si>
     <t>Bulbasaur</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://wiki.xn--rckteqa2e.com/wiki/%E3%83%9D%E3%82%B1%E3%83%A2%E3%83%B3%E4%B8%80%E8%A6%A7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明文の参考</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重さ高さタイプの参考</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2110,9 +2137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G1:G5"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2241,6 +2266,9 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
@@ -2297,13 +2325,16 @@
       </c>
       <c r="W3" t="str">
         <f>"INSERT INTO PK_POKEDEX_MST ( "&amp;$A$2&amp;", "&amp;$B$2&amp;", "&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;", "&amp;$G$2&amp;", "&amp;$H$2&amp;", "&amp;$I$2&amp;", "&amp;$J$2&amp;", "&amp;$K$2&amp;", "&amp;$L$2&amp;", "&amp;$M$2&amp;", "&amp;$N$2&amp;", "&amp;$O$2&amp;" ) VALUES ( "&amp;A3&amp;", "&amp;IF(ISBLANK(B3),"NULL",B3)&amp;", "&amp;"'"&amp;C3&amp;"'"&amp;", "&amp;"'"&amp;D3&amp;"'"&amp;", "&amp;E3&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;"'"&amp;TEXT(H3,"yyyy/mm/dd")&amp;"'"&amp;", "&amp;"'"&amp;I3&amp;"'"&amp;", "&amp;"'"&amp;J3&amp;"'"&amp;", "&amp;"'"&amp;TEXT(K3,"yyyy/mm/dd")&amp;"'"&amp;", "&amp;"'"&amp;L3&amp;"'"&amp;", "&amp;"'"&amp;M3&amp;"'"&amp;", "&amp;N3&amp;", "&amp;O3&amp;");"</f>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 1, NULL, 'フシギダネ', 'Bulbasaur', 4, 0.7, 6.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 1, 1, 'フシギダネ', 'Bulbasaur', 4, 0.7, 6.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
@@ -2360,13 +2391,16 @@
       </c>
       <c r="W4" t="str">
         <f t="shared" ref="W4:W67" si="1">"INSERT INTO PK_POKEDEX_MST ( "&amp;$A$2&amp;", "&amp;$B$2&amp;", "&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;", "&amp;$G$2&amp;", "&amp;$H$2&amp;", "&amp;$I$2&amp;", "&amp;$J$2&amp;", "&amp;$K$2&amp;", "&amp;$L$2&amp;", "&amp;$M$2&amp;", "&amp;$N$2&amp;", "&amp;$O$2&amp;" ) VALUES ( "&amp;A4&amp;", "&amp;IF(ISBLANK(B4),"NULL",B4)&amp;", "&amp;"'"&amp;C4&amp;"'"&amp;", "&amp;"'"&amp;D4&amp;"'"&amp;", "&amp;E4&amp;", "&amp;F4&amp;", "&amp;G4&amp;", "&amp;"'"&amp;TEXT(H4,"yyyy/mm/dd")&amp;"'"&amp;", "&amp;"'"&amp;I4&amp;"'"&amp;", "&amp;"'"&amp;J4&amp;"'"&amp;", "&amp;"'"&amp;TEXT(K4,"yyyy/mm/dd")&amp;"'"&amp;", "&amp;"'"&amp;L4&amp;"'"&amp;", "&amp;"'"&amp;M4&amp;"'"&amp;", "&amp;N4&amp;", "&amp;O4&amp;");"</f>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 2, NULL, 'フシギソウ', 'Ivysaur', 4, 1, 13, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 2, 1, 'フシギソウ', 'Ivysaur', 4, 1, 13, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5" t="s">
         <v>59</v>
       </c>
@@ -2423,13 +2457,16 @@
       </c>
       <c r="W5" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 3, NULL, 'フシギバナ', 'Venusaur', 4, 2, 100, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 3, 1, 'フシギバナ', 'Venusaur', 4, 2, 100, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="C6" t="s">
         <v>60</v>
       </c>
@@ -2483,13 +2520,16 @@
       </c>
       <c r="W6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 4, NULL, 'ヒトカゲ', 'Charmander', 2, 0.6, 8.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 4, 1, 'ヒトカゲ', 'Charmander', 2, 0.6, 8.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
@@ -2543,13 +2583,16 @@
       </c>
       <c r="W7" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 5, NULL, 'リザード', 'Charmeleon', 2, 1.1, 19, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 5, 1, 'リザード', 'Charmeleon', 2, 1.1, 19, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8" t="s">
         <v>62</v>
       </c>
@@ -2606,13 +2649,16 @@
       </c>
       <c r="W8" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 6, NULL, 'リザードン', 'Charizard', 2, 1.7, 90.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 6, 1, 'リザードン', 'Charizard', 2, 1.7, 90.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="C9" t="s">
         <v>63</v>
       </c>
@@ -2666,13 +2712,16 @@
       </c>
       <c r="W9" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 7, NULL, 'ゼニガメ', 'Squirtle', 3, 0.5, 9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 7, 1, 'ゼニガメ', 'Squirtle', 3, 0.5, 9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -2726,13 +2775,16 @@
       </c>
       <c r="W10" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 8, NULL, 'カメール', 'Wartortle', 3, 1, 22.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 8, 1, 'カメール', 'Wartortle', 3, 1, 22.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -2786,13 +2838,16 @@
       </c>
       <c r="W11" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 9, NULL, 'カメックス', 'Blastoise', 3, 1.6, 85.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 9, 1, 'カメックス', 'Blastoise', 3, 1.6, 85.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -2846,13 +2901,16 @@
       </c>
       <c r="W12" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 10, NULL, 'キャタピー', 'Caterpie', 12, 0.3, 2.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 10, 1, 'キャタピー', 'Caterpie', 12, 0.3, 2.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -2906,13 +2964,16 @@
       </c>
       <c r="W13" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 11, NULL, 'トランセル', 'Metapod', 12, 0.7, 9.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 11, 1, 'トランセル', 'Metapod', 12, 0.7, 9.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -2969,13 +3030,16 @@
       </c>
       <c r="W14" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 12, NULL, 'バタフリー', 'Butterfree', 12, 1.1, 32, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 12, 1, 'バタフリー', 'Butterfree', 12, 1.1, 32, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -3032,13 +3096,16 @@
       </c>
       <c r="W15" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 13, NULL, 'ビードル', 'Weedle', 12, 0.3, 3.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 13, 1, 'ビードル', 'Weedle', 12, 0.3, 3.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
       <c r="C16" t="s">
         <v>70</v>
       </c>
@@ -3095,13 +3162,16 @@
       </c>
       <c r="W16" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 14, NULL, 'コクーン', 'Kakuna', 12, 0.6, 10, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 14, 1, 'コクーン', 'Kakuna', 12, 0.6, 10, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -3158,13 +3228,16 @@
       </c>
       <c r="W17" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 15, NULL, 'スピアー', 'Beedrill', 12, 1, 29.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 15, 1, 'スピアー', 'Beedrill', 12, 1, 29.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="C18" t="s">
         <v>72</v>
       </c>
@@ -3221,13 +3294,16 @@
       </c>
       <c r="W18" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 16, NULL, 'ポッポ', 'Pidgey', 10, 0.3, 1.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 16, 1, 'ポッポ', 'Pidgey', 10, 0.3, 1.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="C19" t="s">
         <v>73</v>
       </c>
@@ -3284,13 +3360,16 @@
       </c>
       <c r="W19" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 17, NULL, 'ピジョン', 'Pidgeotto', 10, 1.1, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 17, 1, 'ピジョン', 'Pidgeotto', 10, 1.1, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="C20" t="s">
         <v>74</v>
       </c>
@@ -3347,13 +3426,16 @@
       </c>
       <c r="W20" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 18, NULL, 'ピジョット', 'Pidgeot', 10, 1.5, 39.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 18, 1, 'ピジョット', 'Pidgeot', 10, 1.5, 39.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="C21" t="s">
         <v>75</v>
       </c>
@@ -3408,13 +3490,16 @@
       </c>
       <c r="W21" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 19, NULL, 'コラッタ', 'Rattata', 1, 0.3, 3.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 19, 1, 'コラッタ', 'Rattata', 1, 0.3, 3.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
       <c r="C22" t="s">
         <v>76</v>
       </c>
@@ -3463,13 +3548,16 @@
       </c>
       <c r="W22" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 20, NULL, 'ラッタ', 'Raticate', 1, 0.7, 18.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 20, 1, 'ラッタ', 'Raticate', 1, 0.7, 18.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="C23" t="s">
         <v>77</v>
       </c>
@@ -3518,13 +3606,16 @@
       </c>
       <c r="W23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 21, NULL, 'オニスズメ', 'Spearow', 10, 0.3, 2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 21, 1, 'オニスズメ', 'Spearow', 10, 0.3, 2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
       <c r="C24" t="s">
         <v>78</v>
       </c>
@@ -3573,13 +3664,16 @@
       </c>
       <c r="W24" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 22, NULL, 'オニドリル', 'Fearow', 10, 1.2, 38, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 22, 1, 'オニドリル', 'Fearow', 10, 1.2, 38, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
       <c r="C25" t="s">
         <v>79</v>
       </c>
@@ -3625,13 +3719,16 @@
       </c>
       <c r="W25" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 23, NULL, 'アーボ', 'Ekans', 8, 2, 6.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 23, 1, 'アーボ', 'Ekans', 8, 2, 6.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
       <c r="C26" t="s">
         <v>80</v>
       </c>
@@ -3677,13 +3774,16 @@
       </c>
       <c r="W26" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 24, NULL, 'アーボック', 'Arbok', 8, 3.5, 65, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 24, 1, 'アーボック', 'Arbok', 8, 3.5, 65, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27">
         <v>25</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
       <c r="C27" t="s">
         <v>81</v>
       </c>
@@ -3729,13 +3829,16 @@
       </c>
       <c r="W27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 25, NULL, 'ピカチュウ', 'Pikachu', 5, 0.4, 6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 25, 1, 'ピカチュウ', 'Pikachu', 5, 0.4, 6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28">
         <v>26</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
       <c r="C28" t="s">
         <v>82</v>
       </c>
@@ -3781,13 +3884,16 @@
       </c>
       <c r="W28" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 26, NULL, 'ライチュウ', 'Raichu', 5, 0.8, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 26, 1, 'ライチュウ', 'Raichu', 5, 0.8, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29">
         <v>27</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="C29" t="s">
         <v>83</v>
       </c>
@@ -3833,13 +3939,16 @@
       </c>
       <c r="W29" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 27, NULL, 'サンド', 'Sandshrew', 9, 0.6, 12, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 27, 1, 'サンド', 'Sandshrew', 9, 0.6, 12, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -3885,13 +3994,16 @@
       </c>
       <c r="W30" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 28, NULL, 'サンドパン', 'Sandslash', 9, 1, 29.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 28, 1, 'サンドパン', 'Sandslash', 9, 1, 29.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31">
         <v>29</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
       <c r="C31" t="s">
         <v>85</v>
       </c>
@@ -3937,13 +4049,16 @@
       </c>
       <c r="W31" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 29, NULL, 'ニドラン♀', 'Nidoran♀', 8, 0.4, 7, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 29, 1, 'ニドラン♀', 'Nidoran♀', 8, 0.4, 7, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32">
         <v>30</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
       <c r="C32" t="s">
         <v>86</v>
       </c>
@@ -3989,13 +4104,16 @@
       </c>
       <c r="W32" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 30, NULL, 'ニドリーナ', 'Nidorina', 8, 0.8, 20, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 30, 1, 'ニドリーナ', 'Nidorina', 8, 0.8, 20, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33">
         <v>31</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
       <c r="C33" t="s">
         <v>87</v>
       </c>
@@ -4044,13 +4162,16 @@
       </c>
       <c r="W33" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 31, NULL, 'ニドクイン', 'Nidoqueen', 8, 1.3, 60, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 31, 1, 'ニドクイン', 'Nidoqueen', 8, 1.3, 60, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34">
         <v>32</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
       <c r="C34" t="s">
         <v>88</v>
       </c>
@@ -4096,13 +4217,16 @@
       </c>
       <c r="W34" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 32, NULL, 'ニドラン♂', 'Nidoran♂', 8, 0.5, 9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 32, 1, 'ニドラン♂', 'Nidoran♂', 8, 0.5, 9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35">
         <v>33</v>
       </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
       <c r="C35" t="s">
         <v>89</v>
       </c>
@@ -4148,13 +4272,16 @@
       </c>
       <c r="W35" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 33, NULL, 'ニドリーノ', 'Nidorino', 8, 0.9, 19.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 33, 1, 'ニドリーノ', 'Nidorino', 8, 0.9, 19.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36">
         <v>34</v>
       </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
       <c r="C36" t="s">
         <v>90</v>
       </c>
@@ -4203,13 +4330,16 @@
       </c>
       <c r="W36" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 34, NULL, 'ニドキング', 'Nidoking', 8, 1.4, 62, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 34, 1, 'ニドキング', 'Nidoking', 8, 1.4, 62, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37">
         <v>35</v>
       </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
       <c r="C37" t="s">
         <v>91</v>
       </c>
@@ -4255,13 +4385,16 @@
       </c>
       <c r="W37" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 35, NULL, 'ピッピ', 'Clefairy', 1, 0.6, 7.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 35, 1, 'ピッピ', 'Clefairy', 1, 0.6, 7.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38">
         <v>36</v>
       </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
       <c r="C38" t="s">
         <v>92</v>
       </c>
@@ -4307,13 +4440,16 @@
       </c>
       <c r="W38" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 36, NULL, 'ピクシー', 'Clefable', 1, 1.3, 40, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 36, 1, 'ピクシー', 'Clefable', 1, 1.3, 40, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39">
         <v>37</v>
       </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
       <c r="C39" t="s">
         <v>93</v>
       </c>
@@ -4359,13 +4495,16 @@
       </c>
       <c r="W39" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 37, NULL, 'ロコン', 'Vulpix', 2, 0.6, 9.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 37, 1, 'ロコン', 'Vulpix', 2, 0.6, 9.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40">
         <v>38</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
       <c r="C40" t="s">
         <v>94</v>
       </c>
@@ -4411,13 +4550,16 @@
       </c>
       <c r="W40" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 38, NULL, 'キュウコン', 'Ninetales', 2, 1.1, 19.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 38, 1, 'キュウコン', 'Ninetales', 2, 1.1, 19.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41">
         <v>39</v>
       </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
       <c r="C41" t="s">
         <v>95</v>
       </c>
@@ -4463,13 +4605,16 @@
       </c>
       <c r="W41" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 39, NULL, 'プリン', 'Jigglypuff', 1, 0.5, 5.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 39, 1, 'プリン', 'Jigglypuff', 1, 0.5, 5.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42">
         <v>40</v>
       </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
       <c r="C42" t="s">
         <v>96</v>
       </c>
@@ -4515,13 +4660,16 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 40, NULL, 'プクリン', 'Wigglytuff', 1, 1, 12, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 40, 1, 'プクリン', 'Wigglytuff', 1, 1, 12, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43">
         <v>41</v>
       </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
       <c r="C43" t="s">
         <v>97</v>
       </c>
@@ -4570,13 +4718,16 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 41, NULL, 'ズバット', 'Zubat', 10, 0.8, 7.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 41, 1, 'ズバット', 'Zubat', 10, 0.8, 7.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44">
         <v>42</v>
       </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
       <c r="C44" t="s">
         <v>98</v>
       </c>
@@ -4625,13 +4776,16 @@
       </c>
       <c r="W44" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 42, NULL, 'ゴルバット', 'Golbat', 10, 1.6, 55, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 42, 1, 'ゴルバット', 'Golbat', 10, 1.6, 55, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45">
         <v>43</v>
       </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
       <c r="C45" t="s">
         <v>99</v>
       </c>
@@ -4680,13 +4834,16 @@
       </c>
       <c r="W45" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 43, NULL, 'ナゾノクサ', 'Oddish', 4, 0.5, 5.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 43, 1, 'ナゾノクサ', 'Oddish', 4, 0.5, 5.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
       <c r="C46" t="s">
         <v>100</v>
       </c>
@@ -4735,13 +4892,16 @@
       </c>
       <c r="W46" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 44, NULL, 'クサイハナ', 'Gloom', 4, 0.8, 8.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 44, 1, 'クサイハナ', 'Gloom', 4, 0.8, 8.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
       <c r="C47" t="s">
         <v>101</v>
       </c>
@@ -4790,13 +4950,16 @@
       </c>
       <c r="W47" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 45, NULL, 'ラフレシア', 'Vileplume', 4, 1.2, 18.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 45, 1, 'ラフレシア', 'Vileplume', 4, 1.2, 18.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48">
         <v>46</v>
       </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
       <c r="C48" t="s">
         <v>102</v>
       </c>
@@ -4845,13 +5008,16 @@
       </c>
       <c r="W48" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 46, NULL, 'パラス', 'Paras', 12, 0.3, 5.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 46, 1, 'パラス', 'Paras', 12, 0.3, 5.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49">
         <v>47</v>
       </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
       <c r="C49" t="s">
         <v>103</v>
       </c>
@@ -4900,13 +5066,16 @@
       </c>
       <c r="W49" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 47, NULL, 'パラセクト', 'Parasect', 12, 1, 29.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 47, 1, 'パラセクト', 'Parasect', 12, 1, 29.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="50" spans="1:23">
       <c r="A50">
         <v>48</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
       <c r="C50" t="s">
         <v>104</v>
       </c>
@@ -4955,13 +5124,16 @@
       </c>
       <c r="W50" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 48, NULL, 'コンパン', 'Venonat', 12, 1, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 48, 1, 'コンパン', 'Venonat', 12, 1, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51">
         <v>49</v>
       </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
       <c r="C51" t="s">
         <v>105</v>
       </c>
@@ -5010,13 +5182,16 @@
       </c>
       <c r="W51" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 49, NULL, 'モルフォン', 'Venomoth', 12, 1.5, 12.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 49, 1, 'モルフォン', 'Venomoth', 12, 1.5, 12.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52">
         <v>50</v>
       </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
       <c r="C52" t="s">
         <v>106</v>
       </c>
@@ -5062,13 +5237,16 @@
       </c>
       <c r="W52" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 50, NULL, 'ディグダ', 'Diglett', 9, 0.2, 0.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 50, 1, 'ディグダ', 'Diglett', 9, 0.2, 0.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53">
         <v>51</v>
       </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
       <c r="C53" t="s">
         <v>107</v>
       </c>
@@ -5114,13 +5292,16 @@
       </c>
       <c r="W53" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 51, NULL, 'ダグトリオ', 'Dugtrio', 9, 0.7, 33.3, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 51, 1, 'ダグトリオ', 'Dugtrio', 9, 0.7, 33.3, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54">
         <v>52</v>
       </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
       <c r="C54" t="s">
         <v>108</v>
       </c>
@@ -5166,13 +5347,16 @@
       </c>
       <c r="W54" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 52, NULL, 'ニャース', 'Meowth', 1, 0.4, 4.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 52, 1, 'ニャース', 'Meowth', 1, 0.4, 4.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55">
         <v>53</v>
       </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
       <c r="C55" t="s">
         <v>109</v>
       </c>
@@ -5218,13 +5402,16 @@
       </c>
       <c r="W55" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 53, NULL, 'ペルシアン', 'Persian', 1, 1, 32, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 53, 1, 'ペルシアン', 'Persian', 1, 1, 32, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56">
         <v>54</v>
       </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
       <c r="C56" t="s">
         <v>110</v>
       </c>
@@ -5270,13 +5457,16 @@
       </c>
       <c r="W56" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 54, NULL, 'コダック', 'Psyduck', 3, 0.8, 19.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 54, 1, 'コダック', 'Psyduck', 3, 0.8, 19.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57">
         <v>55</v>
       </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
       <c r="C57" t="s">
         <v>111</v>
       </c>
@@ -5322,12 +5512,15 @@
       </c>
       <c r="W57" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 55, NULL, 'ゴルダック', 'Golduck', 3, 1.7, 76.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 55, 1, 'ゴルダック', 'Golduck', 3, 1.7, 76.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58">
         <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
       </c>
       <c r="C58" t="s">
         <v>112</v>
@@ -5374,13 +5567,16 @@
       </c>
       <c r="W58" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 56, NULL, 'マンキー', 'Mankey', 7, 0.5, 28, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 56, 1, 'マンキー', 'Mankey', 7, 0.5, 28, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59">
         <v>57</v>
       </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
       <c r="C59" t="s">
         <v>113</v>
       </c>
@@ -5426,13 +5622,16 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 57, NULL, 'オコリザル', 'Primeape', 7, 1, 32, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 57, 1, 'オコリザル', 'Primeape', 7, 1, 32, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60">
         <v>58</v>
       </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
       <c r="C60" t="s">
         <v>114</v>
       </c>
@@ -5478,13 +5677,16 @@
       </c>
       <c r="W60" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 58, NULL, 'ガーディ', 'Growlithe', 2, 0.7, 19, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 58, 1, 'ガーディ', 'Growlithe', 2, 0.7, 19, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61">
         <v>59</v>
       </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
       <c r="C61" t="s">
         <v>115</v>
       </c>
@@ -5530,13 +5732,16 @@
       </c>
       <c r="W61" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 59, NULL, 'ウインディ', 'Arcanine', 2, 1.9, 155, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 59, 1, 'ウインディ', 'Arcanine', 2, 1.9, 155, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62">
         <v>60</v>
       </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
       <c r="C62" t="s">
         <v>116</v>
       </c>
@@ -5582,13 +5787,16 @@
       </c>
       <c r="W62" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 60, NULL, 'ニョロモ', 'Poliwag', 3, 0.6, 12.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 60, 1, 'ニョロモ', 'Poliwag', 3, 0.6, 12.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63">
         <v>61</v>
       </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
       <c r="C63" t="s">
         <v>117</v>
       </c>
@@ -5634,13 +5842,16 @@
       </c>
       <c r="W63" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 61, NULL, 'ニョロゾ', 'Poliwhirl', 3, 1, 20, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 61, 1, 'ニョロゾ', 'Poliwhirl', 3, 1, 20, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64">
         <v>62</v>
       </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
       <c r="C64" t="s">
         <v>118</v>
       </c>
@@ -5689,13 +5900,16 @@
       </c>
       <c r="W64" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 62, NULL, 'ニョロボン', 'Poliwrath', 3, 1.3, 54, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 62, 1, 'ニョロボン', 'Poliwrath', 3, 1.3, 54, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65">
         <v>63</v>
       </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
       <c r="C65" t="s">
         <v>119</v>
       </c>
@@ -5741,13 +5955,16 @@
       </c>
       <c r="W65" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 63, NULL, 'ケーシィ', 'Abra', 11, 0.9, 19.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 63, 1, 'ケーシィ', 'Abra', 11, 0.9, 19.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66">
         <v>64</v>
       </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
       <c r="C66" t="s">
         <v>120</v>
       </c>
@@ -5793,13 +6010,16 @@
       </c>
       <c r="W66" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 64, NULL, 'ユンゲラー', 'Kadabra', 11, 1.3, 56.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 64, 1, 'ユンゲラー', 'Kadabra', 11, 1.3, 56.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67">
         <v>65</v>
       </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
       <c r="C67" t="s">
         <v>121</v>
       </c>
@@ -5845,13 +6065,16 @@
       </c>
       <c r="W67" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 65, NULL, 'フーディン', 'Alakazam', 11, 1.5, 48, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 65, 1, 'フーディン', 'Alakazam', 11, 1.5, 48, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="68" spans="1:23">
       <c r="A68">
         <v>66</v>
       </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
       <c r="C68" t="s">
         <v>122</v>
       </c>
@@ -5897,13 +6120,16 @@
       </c>
       <c r="W68" t="str">
         <f t="shared" ref="W68:W131" si="3">"INSERT INTO PK_POKEDEX_MST ( "&amp;$A$2&amp;", "&amp;$B$2&amp;", "&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;", "&amp;$G$2&amp;", "&amp;$H$2&amp;", "&amp;$I$2&amp;", "&amp;$J$2&amp;", "&amp;$K$2&amp;", "&amp;$L$2&amp;", "&amp;$M$2&amp;", "&amp;$N$2&amp;", "&amp;$O$2&amp;" ) VALUES ( "&amp;A68&amp;", "&amp;IF(ISBLANK(B68),"NULL",B68)&amp;", "&amp;"'"&amp;C68&amp;"'"&amp;", "&amp;"'"&amp;D68&amp;"'"&amp;", "&amp;E68&amp;", "&amp;F68&amp;", "&amp;G68&amp;", "&amp;"'"&amp;TEXT(H68,"yyyy/mm/dd")&amp;"'"&amp;", "&amp;"'"&amp;I68&amp;"'"&amp;", "&amp;"'"&amp;J68&amp;"'"&amp;", "&amp;"'"&amp;TEXT(K68,"yyyy/mm/dd")&amp;"'"&amp;", "&amp;"'"&amp;L68&amp;"'"&amp;", "&amp;"'"&amp;M68&amp;"'"&amp;", "&amp;N68&amp;", "&amp;O68&amp;");"</f>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 66, NULL, 'ワンリキー', 'Machop', 7, 0.8, 19.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 66, 1, 'ワンリキー', 'Machop', 7, 0.8, 19.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69">
         <v>67</v>
       </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
       <c r="C69" t="s">
         <v>123</v>
       </c>
@@ -5949,13 +6175,16 @@
       </c>
       <c r="W69" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 67, NULL, 'ゴーリキー', 'Machoke', 7, 1.5, 70.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 67, 1, 'ゴーリキー', 'Machoke', 7, 1.5, 70.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70">
         <v>68</v>
       </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
       <c r="C70" t="s">
         <v>124</v>
       </c>
@@ -6001,13 +6230,16 @@
       </c>
       <c r="W70" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 68, NULL, 'カイリキー', 'Machamp', 7, 1.6, 130, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 68, 1, 'カイリキー', 'Machamp', 7, 1.6, 130, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71">
         <v>69</v>
       </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
       <c r="C71" t="s">
         <v>125</v>
       </c>
@@ -6056,13 +6288,16 @@
       </c>
       <c r="W71" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 69, NULL, 'マダツボミ', 'Bellsprout', 4, 0.7, 4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 69, 1, 'マダツボミ', 'Bellsprout', 4, 0.7, 4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="72" spans="1:23">
       <c r="A72">
         <v>70</v>
       </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
       <c r="C72" t="s">
         <v>126</v>
       </c>
@@ -6111,13 +6346,16 @@
       </c>
       <c r="W72" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 70, NULL, 'ウツドン', 'Weepinbell', 4, 1, 6.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 70, 1, 'ウツドン', 'Weepinbell', 4, 1, 6.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73">
         <v>71</v>
       </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
       <c r="C73" t="s">
         <v>127</v>
       </c>
@@ -6166,13 +6404,16 @@
       </c>
       <c r="W73" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 71, NULL, 'ウツボット', 'Victreebel', 4, 1.7, 15.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 71, 1, 'ウツボット', 'Victreebel', 4, 1.7, 15.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="74" spans="1:23">
       <c r="A74">
         <v>72</v>
       </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
       <c r="C74" t="s">
         <v>128</v>
       </c>
@@ -6221,13 +6462,16 @@
       </c>
       <c r="W74" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 72, NULL, 'メノクラゲ', 'Tentacool', 3, 0.9, 45.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 72, 1, 'メノクラゲ', 'Tentacool', 3, 0.9, 45.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75">
         <v>73</v>
       </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
       <c r="C75" t="s">
         <v>129</v>
       </c>
@@ -6276,13 +6520,16 @@
       </c>
       <c r="W75" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 73, NULL, 'ドククラゲ', 'Tentacruel', 3, 1.6, 55, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 73, 1, 'ドククラゲ', 'Tentacruel', 3, 1.6, 55, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76">
         <v>74</v>
       </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
       <c r="C76" t="s">
         <v>130</v>
       </c>
@@ -6331,13 +6578,16 @@
       </c>
       <c r="W76" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 74, NULL, 'イシツブテ', 'Geodude', 13, 0.4, 20, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 74, 1, 'イシツブテ', 'Geodude', 13, 0.4, 20, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77">
         <v>75</v>
       </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
       <c r="C77" t="s">
         <v>131</v>
       </c>
@@ -6386,13 +6636,16 @@
       </c>
       <c r="W77" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 75, NULL, 'ゴローン', 'Graveler', 13, 1, 105, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 75, 1, 'ゴローン', 'Graveler', 13, 1, 105, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78">
         <v>76</v>
       </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
       <c r="C78" t="s">
         <v>132</v>
       </c>
@@ -6441,13 +6694,16 @@
       </c>
       <c r="W78" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 76, NULL, 'ゴローニャ', 'Golem', 13, 1.4, 300, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 76, 1, 'ゴローニャ', 'Golem', 13, 1.4, 300, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79">
         <v>77</v>
       </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
       <c r="C79" t="s">
         <v>133</v>
       </c>
@@ -6493,13 +6749,16 @@
       </c>
       <c r="W79" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 77, NULL, 'ポニータ', 'Ponyta', 2, 1, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 77, 1, 'ポニータ', 'Ponyta', 2, 1, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80">
         <v>78</v>
       </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
       <c r="C80" t="s">
         <v>134</v>
       </c>
@@ -6545,13 +6804,16 @@
       </c>
       <c r="W80" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 78, NULL, 'ギャロップ', 'Rapidash', 2, 1.7, 95, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 78, 1, 'ギャロップ', 'Rapidash', 2, 1.7, 95, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81">
         <v>79</v>
       </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
       <c r="C81" t="s">
         <v>135</v>
       </c>
@@ -6600,13 +6862,16 @@
       </c>
       <c r="W81" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 79, NULL, 'ヤドン', 'Slowpoke', 3, 1.2, 36, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 79, 1, 'ヤドン', 'Slowpoke', 3, 1.2, 36, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82">
         <v>80</v>
       </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
       <c r="C82" t="s">
         <v>136</v>
       </c>
@@ -6655,13 +6920,16 @@
       </c>
       <c r="W82" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 80, NULL, 'ヤドラン', 'Slowbro', 3, 1.6, 78.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 80, 1, 'ヤドラン', 'Slowbro', 3, 1.6, 78.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="83" spans="1:23">
       <c r="A83">
         <v>81</v>
       </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
       <c r="C83" t="s">
         <v>137</v>
       </c>
@@ -6710,13 +6978,16 @@
       </c>
       <c r="W83" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 81, NULL, 'コイル', 'Magnemite', 5, 0.3, 6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 81, 1, 'コイル', 'Magnemite', 5, 0.3, 6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="84" spans="1:23">
       <c r="A84">
         <v>82</v>
       </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
       <c r="C84" t="s">
         <v>138</v>
       </c>
@@ -6765,13 +7036,16 @@
       </c>
       <c r="W84" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 82, NULL, 'レアコイル', 'Magneton', 5, 1, 60, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 82, 1, 'レアコイル', 'Magneton', 5, 1, 60, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="85" spans="1:23">
       <c r="A85">
         <v>83</v>
       </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
       <c r="C85" t="s">
         <v>566</v>
       </c>
@@ -6820,13 +7094,16 @@
       </c>
       <c r="W85" t="str">
         <f>"INSERT INTO PK_POKEDEX_MST ( "&amp;$A$2&amp;", "&amp;$B$2&amp;", "&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;", "&amp;$G$2&amp;", "&amp;$H$2&amp;", "&amp;$I$2&amp;", "&amp;$J$2&amp;", "&amp;$K$2&amp;", "&amp;$L$2&amp;", "&amp;$M$2&amp;", "&amp;$N$2&amp;", "&amp;$O$2&amp;" ) VALUES ( "&amp;A85&amp;", "&amp;IF(ISBLANK(B85),"NULL",B85)&amp;", "&amp;"'"&amp;C85&amp;"'"&amp;", "&amp;"'"&amp;D85&amp;"'"&amp;", "&amp;E85&amp;", "&amp;F85&amp;", "&amp;G85&amp;", "&amp;"'"&amp;TEXT(H85,"yyyy/mm/dd")&amp;"'"&amp;", "&amp;"'"&amp;I85&amp;"'"&amp;", "&amp;"'"&amp;J85&amp;"'"&amp;", "&amp;"'"&amp;TEXT(K85,"yyyy/mm/dd")&amp;"'"&amp;", "&amp;"'"&amp;L85&amp;"'"&amp;", "&amp;"'"&amp;M85&amp;"'"&amp;", "&amp;N85&amp;", "&amp;O85&amp;");"</f>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 83, NULL, 'カモネギ', 'Farfetchd', 10, 0.8, 15, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 83, 1, 'カモネギ', 'Farfetchd', 10, 0.8, 15, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="86" spans="1:23">
       <c r="A86">
         <v>84</v>
       </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
       <c r="C86" t="s">
         <v>139</v>
       </c>
@@ -6875,13 +7152,16 @@
       </c>
       <c r="W86" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 84, NULL, 'ドードー', 'Doduo', 10, 1.4, 39.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 84, 1, 'ドードー', 'Doduo', 10, 1.4, 39.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="87" spans="1:23">
       <c r="A87">
         <v>85</v>
       </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
       <c r="C87" t="s">
         <v>140</v>
       </c>
@@ -6930,13 +7210,16 @@
       </c>
       <c r="W87" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 85, NULL, 'ドードリオ', 'Dodrio', 10, 1.8, 85.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 85, 1, 'ドードリオ', 'Dodrio', 10, 1.8, 85.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="88" spans="1:23">
       <c r="A88">
         <v>86</v>
       </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
       <c r="C88" t="s">
         <v>141</v>
       </c>
@@ -6982,13 +7265,16 @@
       </c>
       <c r="W88" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 86, NULL, 'パウワウ', 'Seel', 3, 1.1, 90, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 86, 1, 'パウワウ', 'Seel', 3, 1.1, 90, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="89" spans="1:23">
       <c r="A89">
         <v>87</v>
       </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
       <c r="C89" t="s">
         <v>142</v>
       </c>
@@ -7037,13 +7323,16 @@
       </c>
       <c r="W89" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 87, NULL, 'ジュゴン', 'Dewgong', 3, 1.7, 120, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 87, 1, 'ジュゴン', 'Dewgong', 3, 1.7, 120, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="90" spans="1:23">
       <c r="A90">
         <v>88</v>
       </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
       <c r="C90" t="s">
         <v>143</v>
       </c>
@@ -7089,13 +7378,16 @@
       </c>
       <c r="W90" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 88, NULL, 'ベトベター', 'Grimer', 8, 0.9, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 88, 1, 'ベトベター', 'Grimer', 8, 0.9, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="91" spans="1:23">
       <c r="A91">
         <v>89</v>
       </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
       <c r="C91" t="s">
         <v>144</v>
       </c>
@@ -7141,13 +7433,16 @@
       </c>
       <c r="W91" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 89, NULL, 'ベトベトン', 'Muk', 8, 1.2, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 89, 1, 'ベトベトン', 'Muk', 8, 1.2, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="92" spans="1:23">
       <c r="A92">
         <v>90</v>
       </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
       <c r="C92" t="s">
         <v>145</v>
       </c>
@@ -7193,13 +7488,16 @@
       </c>
       <c r="W92" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 90, NULL, 'シェルダー', 'Shellder', 3, 0.3, 4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 90, 1, 'シェルダー', 'Shellder', 3, 0.3, 4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="93" spans="1:23">
       <c r="A93">
         <v>91</v>
       </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
       <c r="C93" t="s">
         <v>146</v>
       </c>
@@ -7248,13 +7546,16 @@
       </c>
       <c r="W93" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 91, NULL, 'パルシェン', 'Cloyster', 3, 1.5, 132.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 91, 1, 'パルシェン', 'Cloyster', 3, 1.5, 132.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="94" spans="1:23">
       <c r="A94">
         <v>92</v>
       </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
       <c r="C94" t="s">
         <v>147</v>
       </c>
@@ -7303,13 +7604,16 @@
       </c>
       <c r="W94" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 92, NULL, 'ゴース', 'Gastly', 14, 1.3, 0.1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 92, 1, 'ゴース', 'Gastly', 14, 1.3, 0.1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="95" spans="1:23">
       <c r="A95">
         <v>93</v>
       </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
       <c r="C95" t="s">
         <v>51</v>
       </c>
@@ -7358,13 +7662,16 @@
       </c>
       <c r="W95" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 93, NULL, 'ゴースト', 'Haunter', 14, 1.6, 0.1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 93, 1, 'ゴースト', 'Haunter', 14, 1.6, 0.1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="96" spans="1:23">
       <c r="A96">
         <v>94</v>
       </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
       <c r="C96" t="s">
         <v>148</v>
       </c>
@@ -7413,13 +7720,16 @@
       </c>
       <c r="W96" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 94, NULL, 'ゲンガー', 'Gengar', 14, 1.5, 40.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 94, 1, 'ゲンガー', 'Gengar', 14, 1.5, 40.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="97" spans="1:23">
       <c r="A97">
         <v>95</v>
       </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
       <c r="C97" t="s">
         <v>149</v>
       </c>
@@ -7468,13 +7778,16 @@
       </c>
       <c r="W97" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 95, NULL, 'イワーク', 'Onix', 13, 8.8, 210, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 95, 1, 'イワーク', 'Onix', 13, 8.8, 210, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="98" spans="1:23">
       <c r="A98">
         <v>96</v>
       </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
       <c r="C98" t="s">
         <v>150</v>
       </c>
@@ -7520,13 +7833,16 @@
       </c>
       <c r="W98" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 96, NULL, 'スリープ', 'Drowzee', 11, 1, 32.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 96, 1, 'スリープ', 'Drowzee', 11, 1, 32.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="99" spans="1:23">
       <c r="A99">
         <v>97</v>
       </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
       <c r="C99" t="s">
         <v>151</v>
       </c>
@@ -7572,13 +7888,16 @@
       </c>
       <c r="W99" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 97, NULL, 'スリーパー', 'Hypno', 11, 1.6, 75.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 97, 1, 'スリーパー', 'Hypno', 11, 1.6, 75.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="100" spans="1:23">
       <c r="A100">
         <v>98</v>
       </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
       <c r="C100" t="s">
         <v>152</v>
       </c>
@@ -7624,13 +7943,16 @@
       </c>
       <c r="W100" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 98, NULL, 'クラブ', 'Krabby', 3, 0.4, 6.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 98, 1, 'クラブ', 'Krabby', 3, 0.4, 6.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="101" spans="1:23">
       <c r="A101">
         <v>99</v>
       </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
       <c r="C101" t="s">
         <v>153</v>
       </c>
@@ -7676,13 +7998,16 @@
       </c>
       <c r="W101" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 99, NULL, 'キングラー', 'Kingler', 3, 1.3, 60, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 99, 1, 'キングラー', 'Kingler', 3, 1.3, 60, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="102" spans="1:23">
       <c r="A102">
         <v>100</v>
       </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
       <c r="C102" t="s">
         <v>154</v>
       </c>
@@ -7728,13 +8053,16 @@
       </c>
       <c r="W102" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 100, NULL, 'ビリリダマ', 'Voltorb', 5, 0.5, 10.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 100, 1, 'ビリリダマ', 'Voltorb', 5, 0.5, 10.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="103" spans="1:23">
       <c r="A103">
         <v>101</v>
       </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
       <c r="C103" t="s">
         <v>155</v>
       </c>
@@ -7780,13 +8108,16 @@
       </c>
       <c r="W103" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 101, NULL, 'マルマイン', 'Electrode', 5, 1.2, 66.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 101, 1, 'マルマイン', 'Electrode', 5, 1.2, 66.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="104" spans="1:23">
       <c r="A104">
         <v>102</v>
       </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
       <c r="C104" t="s">
         <v>156</v>
       </c>
@@ -7835,13 +8166,16 @@
       </c>
       <c r="W104" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 102, NULL, 'タマタマ', 'Exeggcute', 4, 0.4, 25, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 102, 1, 'タマタマ', 'Exeggcute', 4, 0.4, 25, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="105" spans="1:23">
       <c r="A105">
         <v>103</v>
       </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
       <c r="C105" t="s">
         <v>157</v>
       </c>
@@ -7890,13 +8224,16 @@
       </c>
       <c r="W105" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 103, NULL, 'ナッシー', 'Exeggutor', 4, 2, 120, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 103, 1, 'ナッシー', 'Exeggutor', 4, 2, 120, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="106" spans="1:23">
       <c r="A106">
         <v>104</v>
       </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
       <c r="C106" t="s">
         <v>158</v>
       </c>
@@ -7942,13 +8279,16 @@
       </c>
       <c r="W106" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 104, NULL, 'カラカラ', 'Cubone', 9, 0.4, 6.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 104, 1, 'カラカラ', 'Cubone', 9, 0.4, 6.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="107" spans="1:23">
       <c r="A107">
         <v>105</v>
       </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
       <c r="C107" t="s">
         <v>159</v>
       </c>
@@ -7994,13 +8334,16 @@
       </c>
       <c r="W107" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 105, NULL, 'ガラガラ', 'Marowak', 9, 1, 45, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 105, 1, 'ガラガラ', 'Marowak', 9, 1, 45, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="108" spans="1:23">
       <c r="A108">
         <v>106</v>
       </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
       <c r="C108" t="s">
         <v>160</v>
       </c>
@@ -8046,13 +8389,16 @@
       </c>
       <c r="W108" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 106, NULL, 'サワムラー', 'Hitmonlee', 7, 1.5, 49.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 106, 1, 'サワムラー', 'Hitmonlee', 7, 1.5, 49.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="109" spans="1:23">
       <c r="A109">
         <v>107</v>
       </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
       <c r="C109" t="s">
         <v>161</v>
       </c>
@@ -8098,13 +8444,16 @@
       </c>
       <c r="W109" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 107, NULL, 'エビワラー', 'Hitmonchan', 7, 1.4, 50.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 107, 1, 'エビワラー', 'Hitmonchan', 7, 1.4, 50.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="110" spans="1:23">
       <c r="A110">
         <v>108</v>
       </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
       <c r="C110" t="s">
         <v>162</v>
       </c>
@@ -8150,13 +8499,16 @@
       </c>
       <c r="W110" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 108, NULL, 'ベロリンガ', 'Lickitung', 1, 1.2, 65.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 108, 1, 'ベロリンガ', 'Lickitung', 1, 1.2, 65.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="111" spans="1:23">
       <c r="A111">
         <v>109</v>
       </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
       <c r="C111" t="s">
         <v>163</v>
       </c>
@@ -8202,13 +8554,16 @@
       </c>
       <c r="W111" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 109, NULL, 'ドガース', 'Koffing', 8, 0.6, 1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 109, 1, 'ドガース', 'Koffing', 8, 0.6, 1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="112" spans="1:23">
       <c r="A112">
         <v>110</v>
       </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
       <c r="C112" t="s">
         <v>164</v>
       </c>
@@ -8254,13 +8609,16 @@
       </c>
       <c r="W112" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 110, NULL, 'マタドガス', 'Weezing', 8, 1.2, 9.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 110, 1, 'マタドガス', 'Weezing', 8, 1.2, 9.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="113" spans="1:23">
       <c r="A113">
         <v>111</v>
       </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
       <c r="C113" t="s">
         <v>165</v>
       </c>
@@ -8309,13 +8667,16 @@
       </c>
       <c r="W113" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 111, NULL, 'サイホーン', 'Rhyhorn', 9, 1, 115, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 111, 1, 'サイホーン', 'Rhyhorn', 9, 1, 115, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="114" spans="1:23">
       <c r="A114">
         <v>112</v>
       </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
       <c r="C114" t="s">
         <v>166</v>
       </c>
@@ -8364,13 +8725,16 @@
       </c>
       <c r="W114" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 112, NULL, 'サイドン', 'Rhydon', 9, 1.9, 120, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 112, 1, 'サイドン', 'Rhydon', 9, 1.9, 120, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="115" spans="1:23">
       <c r="A115">
         <v>113</v>
       </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
       <c r="C115" t="s">
         <v>167</v>
       </c>
@@ -8416,13 +8780,16 @@
       </c>
       <c r="W115" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 113, NULL, 'ラッキー', 'Chansey', 1, 1.1, 34.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 113, 1, 'ラッキー', 'Chansey', 1, 1.1, 34.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="116" spans="1:23">
       <c r="A116">
         <v>114</v>
       </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
       <c r="C116" t="s">
         <v>168</v>
       </c>
@@ -8468,13 +8835,16 @@
       </c>
       <c r="W116" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 114, NULL, 'モンジャラ', 'Tangela', 4, 1, 35, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 114, 1, 'モンジャラ', 'Tangela', 4, 1, 35, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="117" spans="1:23">
       <c r="A117">
         <v>115</v>
       </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
       <c r="C117" t="s">
         <v>169</v>
       </c>
@@ -8520,13 +8890,16 @@
       </c>
       <c r="W117" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 115, NULL, 'ガルーラ', 'Kangaskhan', 1, 2.2, 80, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 115, 1, 'ガルーラ', 'Kangaskhan', 1, 2.2, 80, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="118" spans="1:23">
       <c r="A118">
         <v>116</v>
       </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
       <c r="C118" t="s">
         <v>170</v>
       </c>
@@ -8572,13 +8945,16 @@
       </c>
       <c r="W118" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 116, NULL, 'タッツー', 'Horsea', 3, 0.4, 8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 116, 1, 'タッツー', 'Horsea', 3, 0.4, 8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="119" spans="1:23">
       <c r="A119">
         <v>117</v>
       </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
       <c r="C119" t="s">
         <v>171</v>
       </c>
@@ -8624,13 +9000,16 @@
       </c>
       <c r="W119" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 117, NULL, 'シードラ', 'Seadra', 3, 1.2, 25, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 117, 1, 'シードラ', 'Seadra', 3, 1.2, 25, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="120" spans="1:23">
       <c r="A120">
         <v>118</v>
       </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
       <c r="C120" t="s">
         <v>172</v>
       </c>
@@ -8676,13 +9055,16 @@
       </c>
       <c r="W120" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 118, NULL, 'トサキント', 'Goldeen', 3, 0.6, 15, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 118, 1, 'トサキント', 'Goldeen', 3, 0.6, 15, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="121" spans="1:23">
       <c r="A121">
         <v>119</v>
       </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
       <c r="C121" t="s">
         <v>173</v>
       </c>
@@ -8728,13 +9110,16 @@
       </c>
       <c r="W121" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 119, NULL, 'アズマオウ', 'Seaking', 3, 1.3, 39, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 119, 1, 'アズマオウ', 'Seaking', 3, 1.3, 39, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="122" spans="1:23">
       <c r="A122">
         <v>120</v>
       </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
       <c r="C122" t="s">
         <v>174</v>
       </c>
@@ -8780,13 +9165,16 @@
       </c>
       <c r="W122" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 120, NULL, 'ヒトデマン', 'Staryu', 3, 0.8, 34.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 120, 1, 'ヒトデマン', 'Staryu', 3, 0.8, 34.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="123" spans="1:23">
       <c r="A123">
         <v>121</v>
       </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
       <c r="C123" t="s">
         <v>175</v>
       </c>
@@ -8835,13 +9223,16 @@
       </c>
       <c r="W123" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 121, NULL, 'スターミー', 'Starmie', 3, 1.1, 80, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 121, 1, 'スターミー', 'Starmie', 3, 1.1, 80, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="124" spans="1:23">
       <c r="A124">
         <v>122</v>
       </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
       <c r="C124" t="s">
         <v>176</v>
       </c>
@@ -8887,13 +9278,16 @@
       </c>
       <c r="W124" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 122, NULL, 'バリヤード', 'Mr. Mime', 11, 1.3, 54.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 122, 1, 'バリヤード', 'Mr. Mime', 11, 1.3, 54.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="125" spans="1:23">
       <c r="A125">
         <v>123</v>
       </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
       <c r="C125" t="s">
         <v>177</v>
       </c>
@@ -8942,13 +9336,16 @@
       </c>
       <c r="W125" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 123, NULL, 'ストライク', 'Scyther', 12, 1.5, 56, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 123, 1, 'ストライク', 'Scyther', 12, 1.5, 56, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="126" spans="1:23">
       <c r="A126">
         <v>124</v>
       </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
       <c r="C126" t="s">
         <v>178</v>
       </c>
@@ -8997,13 +9394,16 @@
       </c>
       <c r="W126" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 124, NULL, 'ルージュラ', 'Jynx', 6, 1.4, 40.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 124, 1, 'ルージュラ', 'Jynx', 6, 1.4, 40.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="127" spans="1:23">
       <c r="A127">
         <v>125</v>
       </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
       <c r="C127" t="s">
         <v>179</v>
       </c>
@@ -9049,13 +9449,16 @@
       </c>
       <c r="W127" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 125, NULL, 'エレブー', 'Electabuzz', 5, 1.1, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 125, 1, 'エレブー', 'Electabuzz', 5, 1.1, 30, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="128" spans="1:23">
       <c r="A128">
         <v>126</v>
       </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
       <c r="C128" t="s">
         <v>180</v>
       </c>
@@ -9101,13 +9504,16 @@
       </c>
       <c r="W128" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 126, NULL, 'ブーバー', 'Magmar', 2, 1.3, 44.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 126, 1, 'ブーバー', 'Magmar', 2, 1.3, 44.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="129" spans="1:23">
       <c r="A129">
         <v>127</v>
       </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
       <c r="C129" t="s">
         <v>181</v>
       </c>
@@ -9153,13 +9559,16 @@
       </c>
       <c r="W129" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 127, NULL, 'カイロス', 'Pinsir', 12, 1.5, 55, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 127, 1, 'カイロス', 'Pinsir', 12, 1.5, 55, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="130" spans="1:23">
       <c r="A130">
         <v>128</v>
       </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
       <c r="C130" t="s">
         <v>182</v>
       </c>
@@ -9205,13 +9614,16 @@
       </c>
       <c r="W130" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 128, NULL, 'ケンタロス', 'Tauros', 1, 1.4, 88.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 128, 1, 'ケンタロス', 'Tauros', 1, 1.4, 88.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="131" spans="1:23">
       <c r="A131">
         <v>129</v>
       </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
       <c r="C131" t="s">
         <v>183</v>
       </c>
@@ -9257,13 +9669,16 @@
       </c>
       <c r="W131" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 129, NULL, 'コイキング', 'Magikarp', 3, 0.9, 10, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 129, 1, 'コイキング', 'Magikarp', 3, 0.9, 10, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="132" spans="1:23">
       <c r="A132">
         <v>130</v>
       </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
       <c r="C132" t="s">
         <v>184</v>
       </c>
@@ -9312,13 +9727,16 @@
       </c>
       <c r="W132" t="str">
         <f t="shared" ref="W132:W195" si="5">"INSERT INTO PK_POKEDEX_MST ( "&amp;$A$2&amp;", "&amp;$B$2&amp;", "&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;", "&amp;$G$2&amp;", "&amp;$H$2&amp;", "&amp;$I$2&amp;", "&amp;$J$2&amp;", "&amp;$K$2&amp;", "&amp;$L$2&amp;", "&amp;$M$2&amp;", "&amp;$N$2&amp;", "&amp;$O$2&amp;" ) VALUES ( "&amp;A132&amp;", "&amp;IF(ISBLANK(B132),"NULL",B132)&amp;", "&amp;"'"&amp;C132&amp;"'"&amp;", "&amp;"'"&amp;D132&amp;"'"&amp;", "&amp;E132&amp;", "&amp;F132&amp;", "&amp;G132&amp;", "&amp;"'"&amp;TEXT(H132,"yyyy/mm/dd")&amp;"'"&amp;", "&amp;"'"&amp;I132&amp;"'"&amp;", "&amp;"'"&amp;J132&amp;"'"&amp;", "&amp;"'"&amp;TEXT(K132,"yyyy/mm/dd")&amp;"'"&amp;", "&amp;"'"&amp;L132&amp;"'"&amp;", "&amp;"'"&amp;M132&amp;"'"&amp;", "&amp;N132&amp;", "&amp;O132&amp;");"</f>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 130, NULL, 'ギャラドス', 'Gyarados', 3, 6.5, 235, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 130, 1, 'ギャラドス', 'Gyarados', 3, 6.5, 235, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="133" spans="1:23">
       <c r="A133">
         <v>131</v>
       </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
       <c r="C133" t="s">
         <v>185</v>
       </c>
@@ -9367,13 +9785,16 @@
       </c>
       <c r="W133" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 131, NULL, 'ラプラス', 'Lapras', 3, 2.5, 220, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 131, 1, 'ラプラス', 'Lapras', 3, 2.5, 220, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="134" spans="1:23">
       <c r="A134">
         <v>132</v>
       </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
       <c r="C134" t="s">
         <v>186</v>
       </c>
@@ -9419,13 +9840,16 @@
       </c>
       <c r="W134" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 132, NULL, 'メタモン', 'Ditto', 1, 0.3, 4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 132, 1, 'メタモン', 'Ditto', 1, 0.3, 4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="135" spans="1:23">
       <c r="A135">
         <v>133</v>
       </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
       <c r="C135" t="s">
         <v>187</v>
       </c>
@@ -9471,13 +9895,16 @@
       </c>
       <c r="W135" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 133, NULL, 'イーブイ', 'Eevee', 1, 0.3, 6.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 133, 1, 'イーブイ', 'Eevee', 1, 0.3, 6.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="136" spans="1:23">
       <c r="A136">
         <v>134</v>
       </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
       <c r="C136" t="s">
         <v>188</v>
       </c>
@@ -9523,13 +9950,16 @@
       </c>
       <c r="W136" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 134, NULL, 'シャワーズ', 'Vaporeon', 3, 1, 29, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 134, 1, 'シャワーズ', 'Vaporeon', 3, 1, 29, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="137" spans="1:23">
       <c r="A137">
         <v>135</v>
       </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
       <c r="C137" t="s">
         <v>189</v>
       </c>
@@ -9575,13 +10005,16 @@
       </c>
       <c r="W137" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 135, NULL, 'サンダース', 'Jolteon', 5, 0.8, 24.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 135, 1, 'サンダース', 'Jolteon', 5, 0.8, 24.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="138" spans="1:23">
       <c r="A138">
         <v>136</v>
       </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
       <c r="C138" t="s">
         <v>190</v>
       </c>
@@ -9627,13 +10060,16 @@
       </c>
       <c r="W138" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 136, NULL, 'ブースター', 'Flareon', 2, 0.9, 25, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 136, 1, 'ブースター', 'Flareon', 2, 0.9, 25, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="139" spans="1:23">
       <c r="A139">
         <v>137</v>
       </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
       <c r="C139" t="s">
         <v>191</v>
       </c>
@@ -9679,13 +10115,16 @@
       </c>
       <c r="W139" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 137, NULL, 'ポリゴン', 'Porygon', 1, 0.8, 36.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 137, 1, 'ポリゴン', 'Porygon', 1, 0.8, 36.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="140" spans="1:23">
       <c r="A140">
         <v>138</v>
       </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
       <c r="C140" t="s">
         <v>192</v>
       </c>
@@ -9734,13 +10173,16 @@
       </c>
       <c r="W140" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 138, NULL, 'オムナイト', 'Omanyte', 13, 0.4, 7.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 138, 1, 'オムナイト', 'Omanyte', 13, 0.4, 7.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="141" spans="1:23">
       <c r="A141">
         <v>139</v>
       </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
       <c r="C141" t="s">
         <v>193</v>
       </c>
@@ -9789,13 +10231,16 @@
       </c>
       <c r="W141" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 139, NULL, 'オムスター', 'Omastar', 13, 1, 35, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 139, 1, 'オムスター', 'Omastar', 13, 1, 35, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="142" spans="1:23">
       <c r="A142">
         <v>140</v>
       </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
       <c r="C142" t="s">
         <v>194</v>
       </c>
@@ -9844,13 +10289,16 @@
       </c>
       <c r="W142" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 140, NULL, 'カブト', 'Kabuto', 13, 0.5, 11.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 140, 1, 'カブト', 'Kabuto', 13, 0.5, 11.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="143" spans="1:23">
       <c r="A143">
         <v>141</v>
       </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
       <c r="C143" t="s">
         <v>195</v>
       </c>
@@ -9899,13 +10347,16 @@
       </c>
       <c r="W143" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 141, NULL, 'カブトプス', 'Kabutops', 13, 1.3, 40.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 141, 1, 'カブトプス', 'Kabutops', 13, 1.3, 40.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="144" spans="1:23">
       <c r="A144">
         <v>142</v>
       </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
       <c r="C144" t="s">
         <v>196</v>
       </c>
@@ -9954,13 +10405,16 @@
       </c>
       <c r="W144" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 142, NULL, 'プテラ', 'Aerodactyl', 13, 1.8, 59, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 142, 1, 'プテラ', 'Aerodactyl', 13, 1.8, 59, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="145" spans="1:23">
       <c r="A145">
         <v>143</v>
       </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
       <c r="C145" t="s">
         <v>197</v>
       </c>
@@ -10006,13 +10460,16 @@
       </c>
       <c r="W145" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 143, NULL, 'カビゴン', 'Snorlax', 1, 2.1, 460, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 143, 1, 'カビゴン', 'Snorlax', 1, 2.1, 460, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="146" spans="1:23">
       <c r="A146">
         <v>144</v>
       </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
       <c r="C146" t="s">
         <v>198</v>
       </c>
@@ -10061,13 +10518,16 @@
       </c>
       <c r="W146" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 144, NULL, 'フリーザー', 'Articuno', 6, 1.7, 55.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 144, 1, 'フリーザー', 'Articuno', 6, 1.7, 55.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="147" spans="1:23">
       <c r="A147">
         <v>145</v>
       </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
       <c r="C147" t="s">
         <v>199</v>
       </c>
@@ -10116,13 +10576,16 @@
       </c>
       <c r="W147" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 145, NULL, 'サンダー', 'Zapdos', 5, 1.6, 52.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 145, 1, 'サンダー', 'Zapdos', 5, 1.6, 52.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="148" spans="1:23">
       <c r="A148">
         <v>146</v>
       </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
       <c r="C148" t="s">
         <v>200</v>
       </c>
@@ -10171,13 +10634,16 @@
       </c>
       <c r="W148" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 146, NULL, 'ファイヤー', 'Moltres', 2, 2, 60, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 146, 1, 'ファイヤー', 'Moltres', 2, 2, 60, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="149" spans="1:23">
       <c r="A149">
         <v>147</v>
       </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
       <c r="C149" t="s">
         <v>201</v>
       </c>
@@ -10223,13 +10689,16 @@
       </c>
       <c r="W149" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 147, NULL, 'ミニリュウ', 'Dratini', 15, 1.8, 3.3, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 147, 1, 'ミニリュウ', 'Dratini', 15, 1.8, 3.3, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="150" spans="1:23">
       <c r="A150">
         <v>148</v>
       </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
       <c r="C150" t="s">
         <v>202</v>
       </c>
@@ -10275,13 +10744,16 @@
       </c>
       <c r="W150" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 148, NULL, 'ハクリュー', 'Dragonair', 15, 4, 16.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 148, 1, 'ハクリュー', 'Dragonair', 15, 4, 16.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="151" spans="1:23">
       <c r="A151">
         <v>149</v>
       </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
       <c r="C151" t="s">
         <v>203</v>
       </c>
@@ -10330,13 +10802,16 @@
       </c>
       <c r="W151" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 149, NULL, 'カイリュー', 'Dragonite', 15, 2.2, 210, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 149, 1, 'カイリュー', 'Dragonite', 15, 2.2, 210, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="152" spans="1:23">
       <c r="A152">
         <v>150</v>
       </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
       <c r="C152" t="s">
         <v>204</v>
       </c>
@@ -10382,13 +10857,16 @@
       </c>
       <c r="W152" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 150, NULL, 'ミュウツー', 'Mewtwo', 11, 2, 122, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 150, 1, 'ミュウツー', 'Mewtwo', 11, 2, 122, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="153" spans="1:23">
       <c r="A153">
         <v>151</v>
       </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
       <c r="C153" t="s">
         <v>205</v>
       </c>
@@ -10434,13 +10912,16 @@
       </c>
       <c r="W153" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 151, NULL, 'ミュウ', 'Mew', 11, 0.4, 4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 151, 1, 'ミュウ', 'Mew', 11, 0.4, 4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="154" spans="1:23">
       <c r="A154">
         <v>152</v>
       </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
       <c r="C154" t="s">
         <v>206</v>
       </c>
@@ -10486,13 +10967,16 @@
       </c>
       <c r="W154" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 152, NULL, 'チコリータ', 'Chikorita', 4, 0.9, 6.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 152, 1, 'チコリータ', 'Chikorita', 4, 0.9, 6.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="155" spans="1:23">
       <c r="A155">
         <v>153</v>
       </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
       <c r="C155" t="s">
         <v>207</v>
       </c>
@@ -10538,13 +11022,16 @@
       </c>
       <c r="W155" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 153, NULL, 'ベイリーフ', 'Bayleef', 4, 1.2, 15.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 153, 1, 'ベイリーフ', 'Bayleef', 4, 1.2, 15.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="156" spans="1:23">
       <c r="A156">
         <v>154</v>
       </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
       <c r="C156" t="s">
         <v>208</v>
       </c>
@@ -10590,13 +11077,16 @@
       </c>
       <c r="W156" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 154, NULL, 'メガニウム', 'Meganium', 4, 1.8, 100.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 154, 1, 'メガニウム', 'Meganium', 4, 1.8, 100.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="157" spans="1:23">
       <c r="A157">
         <v>155</v>
       </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
       <c r="C157" t="s">
         <v>209</v>
       </c>
@@ -10642,13 +11132,16 @@
       </c>
       <c r="W157" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 155, NULL, 'ヒノアラシ', 'Cyndaquil', 2, 0.5, 7.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 155, 1, 'ヒノアラシ', 'Cyndaquil', 2, 0.5, 7.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="158" spans="1:23">
       <c r="A158">
         <v>156</v>
       </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
       <c r="C158" t="s">
         <v>210</v>
       </c>
@@ -10694,13 +11187,16 @@
       </c>
       <c r="W158" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 156, NULL, 'マグマラシ', 'Quilava', 2, 0.9, 19, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 156, 1, 'マグマラシ', 'Quilava', 2, 0.9, 19, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="159" spans="1:23">
       <c r="A159">
         <v>157</v>
       </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
       <c r="C159" t="s">
         <v>211</v>
       </c>
@@ -10746,13 +11242,16 @@
       </c>
       <c r="W159" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 157, NULL, 'バクフーン', 'Typhlosion', 2, 1.7, 79.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 157, 1, 'バクフーン', 'Typhlosion', 2, 1.7, 79.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="160" spans="1:23">
       <c r="A160">
         <v>158</v>
       </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
       <c r="C160" t="s">
         <v>212</v>
       </c>
@@ -10798,13 +11297,16 @@
       </c>
       <c r="W160" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 158, NULL, 'ワニノコ', 'Totodile', 3, 0.6, 9.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 158, 1, 'ワニノコ', 'Totodile', 3, 0.6, 9.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="161" spans="1:23">
       <c r="A161">
         <v>159</v>
       </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
       <c r="C161" t="s">
         <v>213</v>
       </c>
@@ -10850,13 +11352,16 @@
       </c>
       <c r="W161" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 159, NULL, 'アリゲイツ', 'Croconaw', 3, 1.1, 25, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 159, 1, 'アリゲイツ', 'Croconaw', 3, 1.1, 25, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="162" spans="1:23">
       <c r="A162">
         <v>160</v>
       </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
       <c r="C162" t="s">
         <v>214</v>
       </c>
@@ -10902,13 +11407,16 @@
       </c>
       <c r="W162" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 160, NULL, 'オーダイル', 'Feraligatr', 3, 2.3, 88.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 160, 1, 'オーダイル', 'Feraligatr', 3, 2.3, 88.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="163" spans="1:23">
       <c r="A163">
         <v>161</v>
       </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
       <c r="C163" t="s">
         <v>215</v>
       </c>
@@ -10954,13 +11462,16 @@
       </c>
       <c r="W163" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 161, NULL, 'オタチ', 'Sentret', 1, 0.8, 6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 161, 1, 'オタチ', 'Sentret', 1, 0.8, 6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="164" spans="1:23">
       <c r="A164">
         <v>162</v>
       </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
       <c r="C164" t="s">
         <v>216</v>
       </c>
@@ -11006,13 +11517,16 @@
       </c>
       <c r="W164" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 162, NULL, 'オオタチ', 'Furret', 1, 1.8, 32.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 162, 1, 'オオタチ', 'Furret', 1, 1.8, 32.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="165" spans="1:23">
       <c r="A165">
         <v>163</v>
       </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
       <c r="C165" t="s">
         <v>217</v>
       </c>
@@ -11061,13 +11575,16 @@
       </c>
       <c r="W165" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 163, NULL, 'ホーホー', 'Hoothoot', 10, 0.7, 21.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 163, 1, 'ホーホー', 'Hoothoot', 10, 0.7, 21.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="166" spans="1:23">
       <c r="A166">
         <v>164</v>
       </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
       <c r="C166" t="s">
         <v>218</v>
       </c>
@@ -11116,13 +11633,16 @@
       </c>
       <c r="W166" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 164, NULL, 'ヨルノズク', 'Noctowl', 10, 1.6, 40.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 164, 1, 'ヨルノズク', 'Noctowl', 10, 1.6, 40.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="167" spans="1:23">
       <c r="A167">
         <v>165</v>
       </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
       <c r="C167" t="s">
         <v>219</v>
       </c>
@@ -11171,13 +11691,16 @@
       </c>
       <c r="W167" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 165, NULL, 'レディバ', 'Ledyba', 12, 1, 10.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 165, 1, 'レディバ', 'Ledyba', 12, 1, 10.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="168" spans="1:23">
       <c r="A168">
         <v>166</v>
       </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
       <c r="C168" t="s">
         <v>220</v>
       </c>
@@ -11226,13 +11749,16 @@
       </c>
       <c r="W168" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 166, NULL, 'レディアン', 'Ledian', 12, 1.4, 35.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 166, 1, 'レディアン', 'Ledian', 12, 1.4, 35.6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="169" spans="1:23">
       <c r="A169">
         <v>167</v>
       </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
       <c r="C169" t="s">
         <v>221</v>
       </c>
@@ -11281,13 +11807,16 @@
       </c>
       <c r="W169" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 167, NULL, 'イトマル', 'Spinarak', 12, 0.5, 8.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 167, 1, 'イトマル', 'Spinarak', 12, 0.5, 8.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="170" spans="1:23">
       <c r="A170">
         <v>168</v>
       </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
       <c r="C170" t="s">
         <v>222</v>
       </c>
@@ -11336,13 +11865,16 @@
       </c>
       <c r="W170" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 168, NULL, 'アリアドス', 'Ariados', 12, 1.1, 33.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 168, 1, 'アリアドス', 'Ariados', 12, 1.1, 33.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="171" spans="1:23">
       <c r="A171">
         <v>169</v>
       </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
       <c r="C171" t="s">
         <v>223</v>
       </c>
@@ -11391,13 +11923,16 @@
       </c>
       <c r="W171" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 169, NULL, 'クロバット', 'Crobat', 8, 1.8, 75, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 169, 1, 'クロバット', 'Crobat', 8, 1.8, 75, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="172" spans="1:23">
       <c r="A172">
         <v>170</v>
       </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
       <c r="C172" t="s">
         <v>224</v>
       </c>
@@ -11446,13 +11981,16 @@
       </c>
       <c r="W172" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 170, NULL, 'チョンチー', 'Chinchou', 3, 0.5, 12, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 170, 1, 'チョンチー', 'Chinchou', 3, 0.5, 12, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="173" spans="1:23">
       <c r="A173">
         <v>171</v>
       </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
       <c r="C173" t="s">
         <v>225</v>
       </c>
@@ -11501,13 +12039,16 @@
       </c>
       <c r="W173" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 171, NULL, 'ランターン', 'Lanturn', 3, 1.2, 22.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 171, 1, 'ランターン', 'Lanturn', 3, 1.2, 22.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="174" spans="1:23">
       <c r="A174">
         <v>172</v>
       </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
       <c r="C174" t="s">
         <v>226</v>
       </c>
@@ -11553,13 +12094,16 @@
       </c>
       <c r="W174" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 172, NULL, 'ピチュー', 'Pichu', 5, 0.3, 2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 172, 1, 'ピチュー', 'Pichu', 5, 0.3, 2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="175" spans="1:23">
       <c r="A175">
         <v>173</v>
       </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
       <c r="C175" t="s">
         <v>227</v>
       </c>
@@ -11605,13 +12149,16 @@
       </c>
       <c r="W175" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 173, NULL, 'ピィ', 'Cleffa', 1, 0.3, 3, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 173, 1, 'ピィ', 'Cleffa', 1, 0.3, 3, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="176" spans="1:23">
       <c r="A176">
         <v>174</v>
       </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
       <c r="C176" t="s">
         <v>228</v>
       </c>
@@ -11657,13 +12204,16 @@
       </c>
       <c r="W176" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 174, NULL, 'ププリン', 'Igglybuff', 1, 0.3, 1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 174, 1, 'ププリン', 'Igglybuff', 1, 0.3, 1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="177" spans="1:23">
       <c r="A177">
         <v>175</v>
       </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
       <c r="C177" t="s">
         <v>229</v>
       </c>
@@ -11709,13 +12259,16 @@
       </c>
       <c r="W177" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 175, NULL, 'トゲピー', 'Togepi', 1, 0.3, 1.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 175, 1, 'トゲピー', 'Togepi', 1, 0.3, 1.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="178" spans="1:23">
       <c r="A178">
         <v>176</v>
       </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
       <c r="C178" t="s">
         <v>230</v>
       </c>
@@ -11764,13 +12317,16 @@
       </c>
       <c r="W178" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 176, NULL, 'トゲチック', 'Togetic', 1, 0.6, 3.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 176, 1, 'トゲチック', 'Togetic', 1, 0.6, 3.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="179" spans="1:23">
       <c r="A179">
         <v>177</v>
       </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
       <c r="C179" t="s">
         <v>231</v>
       </c>
@@ -11819,13 +12375,16 @@
       </c>
       <c r="W179" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 177, NULL, 'ネイティ', 'Natu', 11, 0.2, 2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 177, 1, 'ネイティ', 'Natu', 11, 0.2, 2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="180" spans="1:23">
       <c r="A180">
         <v>178</v>
       </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
       <c r="C180" t="s">
         <v>232</v>
       </c>
@@ -11874,13 +12433,16 @@
       </c>
       <c r="W180" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 178, NULL, 'ネイティオ', 'Xatu', 11, 1.5, 15, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 178, 1, 'ネイティオ', 'Xatu', 11, 1.5, 15, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="181" spans="1:23">
       <c r="A181">
         <v>179</v>
       </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
       <c r="C181" t="s">
         <v>233</v>
       </c>
@@ -11926,13 +12488,16 @@
       </c>
       <c r="W181" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 179, NULL, 'メリープ', 'Mareep', 5, 0.6, 7.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 179, 1, 'メリープ', 'Mareep', 5, 0.6, 7.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="182" spans="1:23">
       <c r="A182">
         <v>180</v>
       </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
       <c r="C182" t="s">
         <v>234</v>
       </c>
@@ -11978,13 +12543,16 @@
       </c>
       <c r="W182" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 180, NULL, 'モココ', 'Flaaffy', 5, 0.8, 13.3, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 180, 1, 'モココ', 'Flaaffy', 5, 0.8, 13.3, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="183" spans="1:23">
       <c r="A183">
         <v>181</v>
       </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
       <c r="C183" t="s">
         <v>235</v>
       </c>
@@ -12030,13 +12598,16 @@
       </c>
       <c r="W183" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 181, NULL, 'デンリュウ', 'Ampharos', 5, 1.4, 61.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 181, 1, 'デンリュウ', 'Ampharos', 5, 1.4, 61.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="184" spans="1:23">
       <c r="A184">
         <v>182</v>
       </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
       <c r="C184" t="s">
         <v>236</v>
       </c>
@@ -12082,13 +12653,16 @@
       </c>
       <c r="W184" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 182, NULL, 'キレイハナ', 'Bellossom', 4, 0.4, 5.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 182, 1, 'キレイハナ', 'Bellossom', 4, 0.4, 5.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="185" spans="1:23">
       <c r="A185">
         <v>183</v>
       </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
       <c r="C185" t="s">
         <v>237</v>
       </c>
@@ -12134,13 +12708,16 @@
       </c>
       <c r="W185" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 183, NULL, 'マリル', 'Marill', 3, 0.4, 8.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 183, 1, 'マリル', 'Marill', 3, 0.4, 8.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="186" spans="1:23">
       <c r="A186">
         <v>184</v>
       </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
       <c r="C186" t="s">
         <v>238</v>
       </c>
@@ -12186,13 +12763,16 @@
       </c>
       <c r="W186" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 184, NULL, 'マリルリ', 'Azumarill', 3, 0.8, 28.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 184, 1, 'マリルリ', 'Azumarill', 3, 0.8, 28.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="187" spans="1:23">
       <c r="A187">
         <v>185</v>
       </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
       <c r="C187" t="s">
         <v>239</v>
       </c>
@@ -12238,13 +12818,16 @@
       </c>
       <c r="W187" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 185, NULL, 'ウソッキー', 'Sudowoodo', 13, 1.2, 38, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 185, 1, 'ウソッキー', 'Sudowoodo', 13, 1.2, 38, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="188" spans="1:23">
       <c r="A188">
         <v>186</v>
       </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
       <c r="C188" t="s">
         <v>240</v>
       </c>
@@ -12290,13 +12873,16 @@
       </c>
       <c r="W188" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 186, NULL, 'ニョロトノ', 'Politoed', 3, 1.1, 33.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 186, 1, 'ニョロトノ', 'Politoed', 3, 1.1, 33.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="189" spans="1:23">
       <c r="A189">
         <v>187</v>
       </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
       <c r="C189" t="s">
         <v>241</v>
       </c>
@@ -12345,13 +12931,16 @@
       </c>
       <c r="W189" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 187, NULL, 'ハネッコ', 'Hoppip', 4, 0.4, 0.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 187, 1, 'ハネッコ', 'Hoppip', 4, 0.4, 0.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="190" spans="1:23">
       <c r="A190">
         <v>188</v>
       </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
       <c r="C190" t="s">
         <v>242</v>
       </c>
@@ -12400,13 +12989,16 @@
       </c>
       <c r="W190" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 188, NULL, 'ポポッコ', 'Skiploom', 4, 0.6, 1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 188, 1, 'ポポッコ', 'Skiploom', 4, 0.6, 1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="191" spans="1:23">
       <c r="A191">
         <v>189</v>
       </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
       <c r="C191" t="s">
         <v>243</v>
       </c>
@@ -12455,13 +13047,16 @@
       </c>
       <c r="W191" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 189, NULL, 'ワタッコ', 'Jumpluff', 4, 0.8, 3, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 189, 1, 'ワタッコ', 'Jumpluff', 4, 0.8, 3, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="192" spans="1:23">
       <c r="A192">
         <v>190</v>
       </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
       <c r="C192" t="s">
         <v>244</v>
       </c>
@@ -12507,13 +13102,16 @@
       </c>
       <c r="W192" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 190, NULL, 'エイパム', 'Aipom', 1, 0.8, 11.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 190, 1, 'エイパム', 'Aipom', 1, 0.8, 11.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="193" spans="1:23">
       <c r="A193">
         <v>191</v>
       </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
       <c r="C193" t="s">
         <v>245</v>
       </c>
@@ -12559,13 +13157,16 @@
       </c>
       <c r="W193" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 191, NULL, 'ヒマナッツ', 'Sunkern', 4, 0.3, 1.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 191, 1, 'ヒマナッツ', 'Sunkern', 4, 0.3, 1.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="194" spans="1:23">
       <c r="A194">
         <v>192</v>
       </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
       <c r="C194" t="s">
         <v>246</v>
       </c>
@@ -12611,13 +13212,16 @@
       </c>
       <c r="W194" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 192, NULL, 'キマワリ', 'Sunflora', 4, 0.8, 8.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 192, 1, 'キマワリ', 'Sunflora', 4, 0.8, 8.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="195" spans="1:23">
       <c r="A195">
         <v>193</v>
       </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
       <c r="C195" t="s">
         <v>247</v>
       </c>
@@ -12666,13 +13270,16 @@
       </c>
       <c r="W195" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 193, NULL, 'ヤンヤンマ', 'Yanma', 12, 1.2, 38, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 193, 1, 'ヤンヤンマ', 'Yanma', 12, 1.2, 38, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="196" spans="1:23">
       <c r="A196">
         <v>194</v>
       </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
       <c r="C196" t="s">
         <v>248</v>
       </c>
@@ -12721,13 +13328,16 @@
       </c>
       <c r="W196" t="str">
         <f t="shared" ref="W196:W253" si="7">"INSERT INTO PK_POKEDEX_MST ( "&amp;$A$2&amp;", "&amp;$B$2&amp;", "&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;", "&amp;$G$2&amp;", "&amp;$H$2&amp;", "&amp;$I$2&amp;", "&amp;$J$2&amp;", "&amp;$K$2&amp;", "&amp;$L$2&amp;", "&amp;$M$2&amp;", "&amp;$N$2&amp;", "&amp;$O$2&amp;" ) VALUES ( "&amp;A196&amp;", "&amp;IF(ISBLANK(B196),"NULL",B196)&amp;", "&amp;"'"&amp;C196&amp;"'"&amp;", "&amp;"'"&amp;D196&amp;"'"&amp;", "&amp;E196&amp;", "&amp;F196&amp;", "&amp;G196&amp;", "&amp;"'"&amp;TEXT(H196,"yyyy/mm/dd")&amp;"'"&amp;", "&amp;"'"&amp;I196&amp;"'"&amp;", "&amp;"'"&amp;J196&amp;"'"&amp;", "&amp;"'"&amp;TEXT(K196,"yyyy/mm/dd")&amp;"'"&amp;", "&amp;"'"&amp;L196&amp;"'"&amp;", "&amp;"'"&amp;M196&amp;"'"&amp;", "&amp;N196&amp;", "&amp;O196&amp;");"</f>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 194, NULL, 'ウパー', 'Wooper', 3, 0.4, 8.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 194, 1, 'ウパー', 'Wooper', 3, 0.4, 8.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="197" spans="1:23">
       <c r="A197">
         <v>195</v>
       </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
       <c r="C197" t="s">
         <v>249</v>
       </c>
@@ -12776,13 +13386,16 @@
       </c>
       <c r="W197" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 195, NULL, 'ヌオー', 'Quagsire', 3, 1.4, 75, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 195, 1, 'ヌオー', 'Quagsire', 3, 1.4, 75, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="198" spans="1:23">
       <c r="A198">
         <v>196</v>
       </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
       <c r="C198" t="s">
         <v>250</v>
       </c>
@@ -12828,13 +13441,16 @@
       </c>
       <c r="W198" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 196, NULL, 'エーフィ', 'Espeon', 11, 0.9, 26.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 196, 1, 'エーフィ', 'Espeon', 11, 0.9, 26.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="199" spans="1:23">
       <c r="A199">
         <v>197</v>
       </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
       <c r="C199" t="s">
         <v>251</v>
       </c>
@@ -12880,13 +13496,16 @@
       </c>
       <c r="W199" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 197, NULL, 'ブラッキー', 'Umbreon', 16, 1, 27, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 197, 1, 'ブラッキー', 'Umbreon', 16, 1, 27, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="200" spans="1:23">
       <c r="A200">
         <v>198</v>
       </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
       <c r="C200" t="s">
         <v>252</v>
       </c>
@@ -12935,13 +13554,16 @@
       </c>
       <c r="W200" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 198, NULL, 'ヤミカラス', 'Murkrow', 16, 0.5, 2.1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 198, 1, 'ヤミカラス', 'Murkrow', 16, 0.5, 2.1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="201" spans="1:23">
       <c r="A201">
         <v>199</v>
       </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
       <c r="C201" t="s">
         <v>253</v>
       </c>
@@ -12990,13 +13612,16 @@
       </c>
       <c r="W201" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 199, NULL, 'ヤドキング', 'Slowking', 3, 2, 79.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 199, 1, 'ヤドキング', 'Slowking', 3, 2, 79.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="202" spans="1:23">
       <c r="A202">
         <v>200</v>
       </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
       <c r="C202" t="s">
         <v>254</v>
       </c>
@@ -13042,13 +13667,16 @@
       </c>
       <c r="W202" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 200, NULL, 'ムウマ', 'Misdreavus', 14, 0.7, 1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 200, 1, 'ムウマ', 'Misdreavus', 14, 0.7, 1, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="203" spans="1:23">
       <c r="A203">
         <v>201</v>
       </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
       <c r="C203" t="s">
         <v>255</v>
       </c>
@@ -13094,13 +13722,16 @@
       </c>
       <c r="W203" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 201, NULL, 'アンノーン', 'Unown', 11, 0.5, 5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 201, 1, 'アンノーン', 'Unown', 11, 0.5, 5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="204" spans="1:23">
       <c r="A204">
         <v>202</v>
       </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
       <c r="C204" t="s">
         <v>256</v>
       </c>
@@ -13146,13 +13777,16 @@
       </c>
       <c r="W204" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 202, NULL, 'ソーナンス', 'Wobbuffet', 11, 1.3, 28.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 202, 1, 'ソーナンス', 'Wobbuffet', 11, 1.3, 28.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="205" spans="1:23">
       <c r="A205">
         <v>203</v>
       </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
       <c r="C205" t="s">
         <v>257</v>
       </c>
@@ -13201,13 +13835,16 @@
       </c>
       <c r="W205" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 203, NULL, 'キリンリキ', 'Girafarig', 1, 1.5, 41.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 203, 1, 'キリンリキ', 'Girafarig', 1, 1.5, 41.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="206" spans="1:23">
       <c r="A206">
         <v>204</v>
       </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
       <c r="C206" t="s">
         <v>258</v>
       </c>
@@ -13253,13 +13890,16 @@
       </c>
       <c r="W206" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 204, NULL, 'クヌギダマ', 'Pineco', 12, 0.6, 7.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 204, 1, 'クヌギダマ', 'Pineco', 12, 0.6, 7.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="207" spans="1:23">
       <c r="A207">
         <v>205</v>
       </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
       <c r="C207" t="s">
         <v>259</v>
       </c>
@@ -13308,13 +13948,16 @@
       </c>
       <c r="W207" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 205, NULL, 'フォレトス', 'Forretress', 12, 1.2, 125.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 205, 1, 'フォレトス', 'Forretress', 12, 1.2, 125.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="208" spans="1:23">
       <c r="A208">
         <v>206</v>
       </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
       <c r="C208" t="s">
         <v>260</v>
       </c>
@@ -13360,13 +14003,16 @@
       </c>
       <c r="W208" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 206, NULL, 'ノコッチ', 'Dunsparce', 1, 1.5, 14, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 206, 1, 'ノコッチ', 'Dunsparce', 1, 1.5, 14, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="209" spans="1:23">
       <c r="A209">
         <v>207</v>
       </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
       <c r="C209" t="s">
         <v>261</v>
       </c>
@@ -13415,13 +14061,16 @@
       </c>
       <c r="W209" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 207, NULL, 'グライガー', 'Gligar', 9, 1.1, 64.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 207, 1, 'グライガー', 'Gligar', 9, 1.1, 64.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="210" spans="1:23">
       <c r="A210">
         <v>208</v>
       </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
       <c r="C210" t="s">
         <v>262</v>
       </c>
@@ -13470,13 +14119,16 @@
       </c>
       <c r="W210" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 208, NULL, 'ハガネール', 'Steelix', 17, 9.2, 400, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 208, 1, 'ハガネール', 'Steelix', 17, 9.2, 400, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="211" spans="1:23">
       <c r="A211">
         <v>209</v>
       </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
       <c r="C211" t="s">
         <v>263</v>
       </c>
@@ -13522,13 +14174,16 @@
       </c>
       <c r="W211" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 209, NULL, 'ブルー', 'Snubbull', 1, 0.6, 7.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 209, 1, 'ブルー', 'Snubbull', 1, 0.6, 7.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="212" spans="1:23">
       <c r="A212">
         <v>210</v>
       </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
       <c r="C212" t="s">
         <v>264</v>
       </c>
@@ -13574,13 +14229,16 @@
       </c>
       <c r="W212" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 210, NULL, 'グランブル', 'Granbull', 1, 1.4, 48.7, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 210, 1, 'グランブル', 'Granbull', 1, 1.4, 48.7, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="213" spans="1:23">
       <c r="A213">
         <v>211</v>
       </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
       <c r="C213" t="s">
         <v>265</v>
       </c>
@@ -13629,13 +14287,16 @@
       </c>
       <c r="W213" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 211, NULL, 'ハリーセン', 'Qwilfish', 3, 0.5, 3.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 211, 1, 'ハリーセン', 'Qwilfish', 3, 0.5, 3.9, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="214" spans="1:23">
       <c r="A214">
         <v>212</v>
       </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
       <c r="C214" t="s">
         <v>266</v>
       </c>
@@ -13684,13 +14345,16 @@
       </c>
       <c r="W214" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 212, NULL, 'ハッサム', 'Scizor', 12, 1.8, 118, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 212, 1, 'ハッサム', 'Scizor', 12, 1.8, 118, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="215" spans="1:23">
       <c r="A215">
         <v>213</v>
       </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
       <c r="C215" t="s">
         <v>267</v>
       </c>
@@ -13739,13 +14403,16 @@
       </c>
       <c r="W215" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 213, NULL, 'ツボツボ', 'Shuckle', 12, 0.6, 20.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 213, 1, 'ツボツボ', 'Shuckle', 12, 0.6, 20.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="216" spans="1:23">
       <c r="A216">
         <v>214</v>
       </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
       <c r="C216" t="s">
         <v>268</v>
       </c>
@@ -13794,13 +14461,16 @@
       </c>
       <c r="W216" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 214, NULL, 'ヘラクロス', 'Heracross', 12, 1.5, 54, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 214, 1, 'ヘラクロス', 'Heracross', 12, 1.5, 54, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="217" spans="1:23">
       <c r="A217">
         <v>215</v>
       </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
       <c r="C217" t="s">
         <v>269</v>
       </c>
@@ -13849,13 +14519,16 @@
       </c>
       <c r="W217" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 215, NULL, 'ニューラ', 'Sneasel', 16, 0.9, 28, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 215, 1, 'ニューラ', 'Sneasel', 16, 0.9, 28, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="218" spans="1:23">
       <c r="A218">
         <v>216</v>
       </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
       <c r="C218" t="s">
         <v>270</v>
       </c>
@@ -13901,13 +14574,16 @@
       </c>
       <c r="W218" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 216, NULL, 'ヒメグマ', 'Teddiursa', 1, 0.6, 8.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 216, 1, 'ヒメグマ', 'Teddiursa', 1, 0.6, 8.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="219" spans="1:23">
       <c r="A219">
         <v>217</v>
       </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
       <c r="C219" t="s">
         <v>271</v>
       </c>
@@ -13953,13 +14629,16 @@
       </c>
       <c r="W219" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 217, NULL, 'リングマ', 'Ursaring', 1, 1.8, 125.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 217, 1, 'リングマ', 'Ursaring', 1, 1.8, 125.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="220" spans="1:23">
       <c r="A220">
         <v>218</v>
       </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
       <c r="C220" t="s">
         <v>272</v>
       </c>
@@ -14005,13 +14684,16 @@
       </c>
       <c r="W220" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 218, NULL, 'マグマッグ', 'Slugma', 2, 0.7, 35, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 218, 1, 'マグマッグ', 'Slugma', 2, 0.7, 35, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="221" spans="1:23">
       <c r="A221">
         <v>219</v>
       </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
       <c r="C221" t="s">
         <v>273</v>
       </c>
@@ -14060,13 +14742,16 @@
       </c>
       <c r="W221" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 219, NULL, 'マグカルゴ', 'Magcargo', 2, 0.8, 55, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 219, 1, 'マグカルゴ', 'Magcargo', 2, 0.8, 55, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="222" spans="1:23">
       <c r="A222">
         <v>220</v>
       </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
       <c r="C222" t="s">
         <v>274</v>
       </c>
@@ -14115,13 +14800,16 @@
       </c>
       <c r="W222" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 220, NULL, 'ウリムー', 'Swinub', 6, 0.4, 6.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 220, 1, 'ウリムー', 'Swinub', 6, 0.4, 6.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="223" spans="1:23">
       <c r="A223">
         <v>221</v>
       </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
       <c r="C223" t="s">
         <v>275</v>
       </c>
@@ -14170,13 +14858,16 @@
       </c>
       <c r="W223" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 221, NULL, 'イノムー', 'Piloswine', 6, 1.1, 55.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 221, 1, 'イノムー', 'Piloswine', 6, 1.1, 55.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="224" spans="1:23">
       <c r="A224">
         <v>222</v>
       </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
       <c r="C224" t="s">
         <v>276</v>
       </c>
@@ -14225,13 +14916,16 @@
       </c>
       <c r="W224" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 222, NULL, 'サニーゴ', 'Corsola', 3, 0.6, 5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 222, 1, 'サニーゴ', 'Corsola', 3, 0.6, 5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="225" spans="1:23">
       <c r="A225">
         <v>223</v>
       </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
       <c r="C225" t="s">
         <v>277</v>
       </c>
@@ -14277,13 +14971,16 @@
       </c>
       <c r="W225" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 223, NULL, 'テッポウオ', 'Remoraid', 3, 0.6, 12, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 223, 1, 'テッポウオ', 'Remoraid', 3, 0.6, 12, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="226" spans="1:23">
       <c r="A226">
         <v>224</v>
       </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
       <c r="C226" t="s">
         <v>278</v>
       </c>
@@ -14329,13 +15026,16 @@
       </c>
       <c r="W226" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 224, NULL, 'オクタン', 'Octillery', 3, 0.9, 28.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 224, 1, 'オクタン', 'Octillery', 3, 0.9, 28.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="227" spans="1:23">
       <c r="A227">
         <v>225</v>
       </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
       <c r="C227" t="s">
         <v>279</v>
       </c>
@@ -14384,13 +15084,16 @@
       </c>
       <c r="W227" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 225, NULL, 'デリバード', 'Delibird', 6, 0.9, 16, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 225, 1, 'デリバード', 'Delibird', 6, 0.9, 16, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="228" spans="1:23">
       <c r="A228">
         <v>226</v>
       </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
       <c r="C228" t="s">
         <v>280</v>
       </c>
@@ -14439,13 +15142,16 @@
       </c>
       <c r="W228" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 226, NULL, 'マンタイン', 'Mantine', 3, 2.1, 220, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 226, 1, 'マンタイン', 'Mantine', 3, 2.1, 220, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="229" spans="1:23">
       <c r="A229">
         <v>227</v>
       </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
       <c r="C229" t="s">
         <v>281</v>
       </c>
@@ -14494,13 +15200,16 @@
       </c>
       <c r="W229" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 227, NULL, 'エアームド', 'Skarmory', 17, 1.7, 50.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 227, 1, 'エアームド', 'Skarmory', 17, 1.7, 50.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="230" spans="1:23">
       <c r="A230">
         <v>228</v>
       </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
       <c r="C230" t="s">
         <v>282</v>
       </c>
@@ -14549,13 +15258,16 @@
       </c>
       <c r="W230" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 228, NULL, 'デルビル', 'Houndour', 16, 0.6, 10.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 228, 1, 'デルビル', 'Houndour', 16, 0.6, 10.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="231" spans="1:23">
       <c r="A231">
         <v>229</v>
       </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
       <c r="C231" t="s">
         <v>283</v>
       </c>
@@ -14604,13 +15316,16 @@
       </c>
       <c r="W231" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 229, NULL, 'ヘルガー', 'Houndoom', 16, 1.4, 35, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 229, 1, 'ヘルガー', 'Houndoom', 16, 1.4, 35, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="232" spans="1:23">
       <c r="A232">
         <v>230</v>
       </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
       <c r="C232" t="s">
         <v>284</v>
       </c>
@@ -14659,13 +15374,16 @@
       </c>
       <c r="W232" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 230, NULL, 'キングドラ', 'Kingdra', 3, 1.8, 152, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 230, 1, 'キングドラ', 'Kingdra', 3, 1.8, 152, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="233" spans="1:23">
       <c r="A233">
         <v>231</v>
       </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
       <c r="C233" t="s">
         <v>285</v>
       </c>
@@ -14711,13 +15429,16 @@
       </c>
       <c r="W233" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 231, NULL, 'ゴマゾウ', 'Phanpy', 9, 0.5, 33.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 231, 1, 'ゴマゾウ', 'Phanpy', 9, 0.5, 33.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="234" spans="1:23">
       <c r="A234">
         <v>232</v>
       </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
       <c r="C234" t="s">
         <v>286</v>
       </c>
@@ -14763,13 +15484,16 @@
       </c>
       <c r="W234" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 232, NULL, 'ドンファン', 'Donphan', 9, 1.1, 120, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 232, 1, 'ドンファン', 'Donphan', 9, 1.1, 120, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="235" spans="1:23">
       <c r="A235">
         <v>233</v>
       </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
       <c r="C235" t="s">
         <v>561</v>
       </c>
@@ -14815,13 +15539,16 @@
       </c>
       <c r="W235" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 233, NULL, 'ポリゴン2', 'Porygon2', 1, 0.6, 32.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 233, 1, 'ポリゴン2', 'Porygon2', 1, 0.6, 32.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="236" spans="1:23">
       <c r="A236">
         <v>234</v>
       </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
       <c r="C236" t="s">
         <v>287</v>
       </c>
@@ -14867,13 +15594,16 @@
       </c>
       <c r="W236" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 234, NULL, 'オドシシ', 'Stantler', 1, 1.4, 71.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 234, 1, 'オドシシ', 'Stantler', 1, 1.4, 71.2, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="237" spans="1:23">
       <c r="A237">
         <v>235</v>
       </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
       <c r="C237" t="s">
         <v>288</v>
       </c>
@@ -14919,13 +15649,16 @@
       </c>
       <c r="W237" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 235, NULL, 'ドーブル', 'Smeargle', 1, 1.2, 58, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 235, 1, 'ドーブル', 'Smeargle', 1, 1.2, 58, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="238" spans="1:23">
       <c r="A238">
         <v>236</v>
       </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
       <c r="C238" t="s">
         <v>289</v>
       </c>
@@ -14971,13 +15704,16 @@
       </c>
       <c r="W238" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 236, NULL, 'バルキー', 'Tyrogue', 7, 0.7, 21, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 236, 1, 'バルキー', 'Tyrogue', 7, 0.7, 21, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="239" spans="1:23">
       <c r="A239">
         <v>237</v>
       </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
       <c r="C239" t="s">
         <v>290</v>
       </c>
@@ -15023,13 +15759,16 @@
       </c>
       <c r="W239" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 237, NULL, 'カポエラー', 'Hitmontop', 7, 1.4, 48, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 237, 1, 'カポエラー', 'Hitmontop', 7, 1.4, 48, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="240" spans="1:23">
       <c r="A240">
         <v>238</v>
       </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
       <c r="C240" t="s">
         <v>291</v>
       </c>
@@ -15078,13 +15817,16 @@
       </c>
       <c r="W240" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 238, NULL, 'ムチュール', 'Smoochum', 6, 0.4, 6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 238, 1, 'ムチュール', 'Smoochum', 6, 0.4, 6, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="241" spans="1:23">
       <c r="A241">
         <v>239</v>
       </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
       <c r="C241" t="s">
         <v>292</v>
       </c>
@@ -15130,13 +15872,16 @@
       </c>
       <c r="W241" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 239, NULL, 'エレキッド', 'Elekid', 5, 0.6, 23.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 239, 1, 'エレキッド', 'Elekid', 5, 0.6, 23.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="242" spans="1:23">
       <c r="A242">
         <v>240</v>
       </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
       <c r="C242" t="s">
         <v>293</v>
       </c>
@@ -15182,13 +15927,16 @@
       </c>
       <c r="W242" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 240, NULL, 'ブビィ', 'Magby', 2, 0.7, 21.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 240, 1, 'ブビィ', 'Magby', 2, 0.7, 21.4, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="243" spans="1:23">
       <c r="A243">
         <v>241</v>
       </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
       <c r="C243" t="s">
         <v>294</v>
       </c>
@@ -15234,13 +15982,16 @@
       </c>
       <c r="W243" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 241, NULL, 'ミルタンク', 'Miltank', 1, 1.2, 75.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 241, 1, 'ミルタンク', 'Miltank', 1, 1.2, 75.5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="244" spans="1:23">
       <c r="A244">
         <v>242</v>
       </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
       <c r="C244" t="s">
         <v>295</v>
       </c>
@@ -15286,13 +16037,16 @@
       </c>
       <c r="W244" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 242, NULL, 'ハピナス', 'Blissey', 1, 1.5, 46.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 242, 1, 'ハピナス', 'Blissey', 1, 1.5, 46.8, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="245" spans="1:23">
       <c r="A245">
         <v>243</v>
       </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
       <c r="C245" t="s">
         <v>296</v>
       </c>
@@ -15338,13 +16092,16 @@
       </c>
       <c r="W245" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 243, NULL, 'ライコウ', 'Raikou', 5, 1.9, 178, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 243, 1, 'ライコウ', 'Raikou', 5, 1.9, 178, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="246" spans="1:23">
       <c r="A246">
         <v>244</v>
       </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
       <c r="C246" t="s">
         <v>297</v>
       </c>
@@ -15390,13 +16147,16 @@
       </c>
       <c r="W246" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 244, NULL, 'エンテイ', 'Entei', 2, 2.1, 198, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 244, 1, 'エンテイ', 'Entei', 2, 2.1, 198, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="247" spans="1:23">
       <c r="A247">
         <v>245</v>
       </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
       <c r="C247" t="s">
         <v>298</v>
       </c>
@@ -15442,13 +16202,16 @@
       </c>
       <c r="W247" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 245, NULL, 'スイクン', 'Suicune', 3, 2, 187, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 245, 1, 'スイクン', 'Suicune', 3, 2, 187, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="248" spans="1:23">
       <c r="A248">
         <v>246</v>
       </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
       <c r="C248" t="s">
         <v>299</v>
       </c>
@@ -15497,13 +16260,16 @@
       </c>
       <c r="W248" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 246, NULL, 'ヨーギラス', 'Larvitar', 13, 0.6, 72, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 246, 1, 'ヨーギラス', 'Larvitar', 13, 0.6, 72, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="249" spans="1:23">
       <c r="A249">
         <v>247</v>
       </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
       <c r="C249" t="s">
         <v>300</v>
       </c>
@@ -15552,13 +16318,16 @@
       </c>
       <c r="W249" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 247, NULL, 'サナギラス', 'Pupitar', 13, 1.2, 152, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 247, 1, 'サナギラス', 'Pupitar', 13, 1.2, 152, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="250" spans="1:23">
       <c r="A250">
         <v>248</v>
       </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
       <c r="C250" t="s">
         <v>301</v>
       </c>
@@ -15607,13 +16376,16 @@
       </c>
       <c r="W250" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 248, NULL, 'バンギラス', 'Tyranitar', 13, 2, 202, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 248, 1, 'バンギラス', 'Tyranitar', 13, 2, 202, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="251" spans="1:23">
       <c r="A251">
         <v>249</v>
       </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
       <c r="C251" t="s">
         <v>302</v>
       </c>
@@ -15662,13 +16434,16 @@
       </c>
       <c r="W251" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 249, NULL, 'ルギア', 'Lugia', 11, 5.2, 216, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 249, 1, 'ルギア', 'Lugia', 11, 5.2, 216, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="252" spans="1:23">
       <c r="A252">
         <v>250</v>
       </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
       <c r="C252" t="s">
         <v>303</v>
       </c>
@@ -15717,13 +16492,16 @@
       </c>
       <c r="W252" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 250, NULL, 'ホウオウ', 'Ho-Oh', 2, 3.8, 199, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 250, 1, 'ホウオウ', 'Ho-Oh', 2, 3.8, 199, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
     <row r="253" spans="1:23">
       <c r="A253">
         <v>251</v>
       </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
       <c r="C253" t="s">
         <v>304</v>
       </c>
@@ -15772,7 +16550,7 @@
       </c>
       <c r="W253" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 251, NULL, 'セレビィ', 'Celebi', 11, 0.6, 5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
+        <v>INSERT INTO PK_POKEDEX_MST ( POKEMON_ID, POKEMON_ID_BRANCH, POKEMON_JP_NAME, POKEMON_EN_NAME, TYPE_ID, HEIGHT, WEIGHT, CREATE_DATE, CREATER, CREATE_PROGRAM, UPDATE_DATE, UPDATER, UPDATE_PROGRAM, UPDATE_COUNT, DELETE_FLAG ) VALUES ( 251, 1, 'セレビィ', 'Celebi', 11, 0.6, 5, '2022/07/15', 'fujii', 'init01', '2022/07/15', 'fujii', 'init01', 1, 0);</v>
       </c>
     </row>
   </sheetData>
@@ -16644,25 +17422,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477C22CC-E57F-4E20-A848-9F5DE8AB064A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{C089ACF4-8A77-4280-93C2-03CC3832D733}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C089ACF4-8A77-4280-93C2-03CC3832D733}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{30AF32D9-1E9A-449D-A23B-4808DD81565C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/main/resources/database/initData.xlsx
+++ b/src/main/resources/database/initData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Pokedex_ver01\Pokedex_ver01\src\main\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5E5232-6839-4507-9AF3-616DD614198D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7C1A98-DFD7-4D68-B105-4D4A3185776D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="738" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2790" windowWidth="16200" windowHeight="10060" tabRatio="738" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ポケモン図鑑マスタ" sheetId="1" r:id="rId1"/>
     <sheet name="タイプマスタ" sheetId="2" r:id="rId2"/>
     <sheet name="ユーザーマスタ" sheetId="3" r:id="rId3"/>
-    <sheet name="参考" sheetId="5" r:id="rId4"/>
+    <sheet name="地方マスタ" sheetId="6" r:id="rId4"/>
+    <sheet name="参考" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="597">
   <si>
     <t>POKEMON_ID</t>
   </si>
@@ -1790,6 +1791,109 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REGION_ID</t>
+  </si>
+  <si>
+    <t>REGION_NAME_JP</t>
+  </si>
+  <si>
+    <t>REGION_NAME_EN</t>
+  </si>
+  <si>
+    <t>地方ID</t>
+  </si>
+  <si>
+    <t>地方名_日本語</t>
+  </si>
+  <si>
+    <t>地方名_英語</t>
+  </si>
+  <si>
+    <t>カントー地方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョウト地方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホウエン地方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンオウ地方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イッシュ地方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カロス地方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アローラ地方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガラル地方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Johto Region</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kanto Region</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hoenn Region</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sinnoh Region</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unova Region</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK_REGION_MST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区切り</t>
+    <rPh sb="0" eb="2">
+      <t>クギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://getgrid.tyspine.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT文の生成</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -16564,7 +16668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69155ABB-5DA4-47EA-8EC4-0318DEC64DCD}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -17421,10 +17527,142 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA57102D-A214-473A-AE6A-11B5CCEC50F5}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J1" t="s">
+        <v>592</v>
+      </c>
+      <c r="K1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477C22CC-E57F-4E20-A848-9F5DE8AB064A}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -17448,13 +17686,24 @@
         <v>569</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{C089ACF4-8A77-4280-93C2-03CC3832D733}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{30AF32D9-1E9A-449D-A23B-4808DD81565C}"/>
+    <hyperlink ref="A10" r:id="rId3" xr:uid="{42431B11-15CC-4554-8751-AB1B7F6B266E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>